--- a/checking_list.xlsx
+++ b/checking_list.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3384" uniqueCount="678">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3260" uniqueCount="678">
   <si>
     <t>Item#</t>
   </si>
@@ -2432,18 +2432,6 @@
       <c r="A2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" t="s">
-        <v>5</v>
-      </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3">
@@ -4047,18 +4035,6 @@
       <c r="A97" t="s">
         <v>6</v>
       </c>
-      <c r="B97" t="s">
-        <v>6</v>
-      </c>
-      <c r="C97" t="s">
-        <v>6</v>
-      </c>
-      <c r="D97" t="s">
-        <v>6</v>
-      </c>
-      <c r="E97" t="s">
-        <v>6</v>
-      </c>
     </row>
     <row r="98" spans="1:5">
       <c r="A98">
@@ -5696,18 +5672,6 @@
       <c r="A194" t="s">
         <v>7</v>
       </c>
-      <c r="B194" t="s">
-        <v>7</v>
-      </c>
-      <c r="C194" t="s">
-        <v>7</v>
-      </c>
-      <c r="D194" t="s">
-        <v>7</v>
-      </c>
-      <c r="E194" t="s">
-        <v>7</v>
-      </c>
     </row>
     <row r="195" spans="1:5">
       <c r="A195">
@@ -7141,18 +7105,6 @@
       <c r="A279" t="s">
         <v>8</v>
       </c>
-      <c r="B279" t="s">
-        <v>8</v>
-      </c>
-      <c r="C279" t="s">
-        <v>8</v>
-      </c>
-      <c r="D279" t="s">
-        <v>8</v>
-      </c>
-      <c r="E279" t="s">
-        <v>8</v>
-      </c>
     </row>
     <row r="280" spans="1:5">
       <c r="A280">
@@ -8586,18 +8538,6 @@
       <c r="A364" t="s">
         <v>9</v>
       </c>
-      <c r="B364" t="s">
-        <v>9</v>
-      </c>
-      <c r="C364" t="s">
-        <v>9</v>
-      </c>
-      <c r="D364" t="s">
-        <v>9</v>
-      </c>
-      <c r="E364" t="s">
-        <v>9</v>
-      </c>
     </row>
     <row r="365" spans="1:5">
       <c r="A365">
@@ -9487,18 +9427,6 @@
       <c r="A417" t="s">
         <v>10</v>
       </c>
-      <c r="B417" t="s">
-        <v>10</v>
-      </c>
-      <c r="C417" t="s">
-        <v>10</v>
-      </c>
-      <c r="D417" t="s">
-        <v>10</v>
-      </c>
-      <c r="E417" t="s">
-        <v>10</v>
-      </c>
     </row>
     <row r="418" spans="1:5">
       <c r="A418">
@@ -10133,18 +10061,6 @@
       <c r="A455" t="s">
         <v>11</v>
       </c>
-      <c r="B455" t="s">
-        <v>11</v>
-      </c>
-      <c r="C455" t="s">
-        <v>11</v>
-      </c>
-      <c r="D455" t="s">
-        <v>11</v>
-      </c>
-      <c r="E455" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="456" spans="1:5">
       <c r="A456">
@@ -10728,18 +10644,6 @@
       <c r="A490" t="s">
         <v>12</v>
       </c>
-      <c r="B490" t="s">
-        <v>12</v>
-      </c>
-      <c r="C490" t="s">
-        <v>12</v>
-      </c>
-      <c r="D490" t="s">
-        <v>12</v>
-      </c>
-      <c r="E490" t="s">
-        <v>12</v>
-      </c>
     </row>
     <row r="491" spans="1:5">
       <c r="A491">
@@ -11323,18 +11227,6 @@
       <c r="A525" t="s">
         <v>13</v>
       </c>
-      <c r="B525" t="s">
-        <v>13</v>
-      </c>
-      <c r="C525" t="s">
-        <v>13</v>
-      </c>
-      <c r="D525" t="s">
-        <v>13</v>
-      </c>
-      <c r="E525" t="s">
-        <v>13</v>
-      </c>
     </row>
     <row r="526" spans="1:5">
       <c r="A526">
@@ -12513,18 +12405,6 @@
       <c r="A595" t="s">
         <v>14</v>
       </c>
-      <c r="B595" t="s">
-        <v>14</v>
-      </c>
-      <c r="C595" t="s">
-        <v>14</v>
-      </c>
-      <c r="D595" t="s">
-        <v>14</v>
-      </c>
-      <c r="E595" t="s">
-        <v>14</v>
-      </c>
     </row>
     <row r="596" spans="1:5">
       <c r="A596">
@@ -13669,18 +13549,6 @@
       <c r="A663" t="s">
         <v>15</v>
       </c>
-      <c r="B663" t="s">
-        <v>15</v>
-      </c>
-      <c r="C663" t="s">
-        <v>15</v>
-      </c>
-      <c r="D663" t="s">
-        <v>15</v>
-      </c>
-      <c r="E663" t="s">
-        <v>15</v>
-      </c>
     </row>
     <row r="664" spans="1:5">
       <c r="A664">
@@ -14808,18 +14676,6 @@
       <c r="A730" t="s">
         <v>16</v>
       </c>
-      <c r="B730" t="s">
-        <v>16</v>
-      </c>
-      <c r="C730" t="s">
-        <v>16</v>
-      </c>
-      <c r="D730" t="s">
-        <v>16</v>
-      </c>
-      <c r="E730" t="s">
-        <v>16</v>
-      </c>
     </row>
     <row r="731" spans="1:5">
       <c r="A731">
@@ -15947,18 +15803,6 @@
       <c r="A797" t="s">
         <v>17</v>
       </c>
-      <c r="B797" t="s">
-        <v>17</v>
-      </c>
-      <c r="C797" t="s">
-        <v>17</v>
-      </c>
-      <c r="D797" t="s">
-        <v>17</v>
-      </c>
-      <c r="E797" t="s">
-        <v>17</v>
-      </c>
     </row>
     <row r="798" spans="1:5">
       <c r="A798">
@@ -17103,18 +16947,6 @@
       <c r="A865" t="s">
         <v>18</v>
       </c>
-      <c r="B865" t="s">
-        <v>18</v>
-      </c>
-      <c r="C865" t="s">
-        <v>18</v>
-      </c>
-      <c r="D865" t="s">
-        <v>18</v>
-      </c>
-      <c r="E865" t="s">
-        <v>18</v>
-      </c>
     </row>
     <row r="866" spans="1:5">
       <c r="A866">
@@ -18242,18 +18074,6 @@
       <c r="A932" t="s">
         <v>19</v>
       </c>
-      <c r="B932" t="s">
-        <v>19</v>
-      </c>
-      <c r="C932" t="s">
-        <v>19</v>
-      </c>
-      <c r="D932" t="s">
-        <v>19</v>
-      </c>
-      <c r="E932" t="s">
-        <v>19</v>
-      </c>
     </row>
     <row r="933" spans="1:5">
       <c r="A933">
@@ -19109,18 +18929,6 @@
       <c r="A983" t="s">
         <v>20</v>
       </c>
-      <c r="B983" t="s">
-        <v>20</v>
-      </c>
-      <c r="C983" t="s">
-        <v>20</v>
-      </c>
-      <c r="D983" t="s">
-        <v>20</v>
-      </c>
-      <c r="E983" t="s">
-        <v>20</v>
-      </c>
     </row>
     <row r="984" spans="1:5">
       <c r="A984">
@@ -19976,18 +19784,6 @@
       <c r="A1034" t="s">
         <v>21</v>
       </c>
-      <c r="B1034" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1034" t="s">
-        <v>21</v>
-      </c>
-      <c r="D1034" t="s">
-        <v>21</v>
-      </c>
-      <c r="E1034" t="s">
-        <v>21</v>
-      </c>
     </row>
     <row r="1035" spans="1:5">
       <c r="A1035">
@@ -20843,18 +20639,6 @@
       <c r="A1085" t="s">
         <v>22</v>
       </c>
-      <c r="B1085" t="s">
-        <v>22</v>
-      </c>
-      <c r="C1085" t="s">
-        <v>22</v>
-      </c>
-      <c r="D1085" t="s">
-        <v>22</v>
-      </c>
-      <c r="E1085" t="s">
-        <v>22</v>
-      </c>
     </row>
     <row r="1086" spans="1:5">
       <c r="A1086">
@@ -21727,18 +21511,6 @@
       <c r="A1137" t="s">
         <v>23</v>
       </c>
-      <c r="B1137" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1137" t="s">
-        <v>23</v>
-      </c>
-      <c r="D1137" t="s">
-        <v>23</v>
-      </c>
-      <c r="E1137" t="s">
-        <v>23</v>
-      </c>
     </row>
     <row r="1138" spans="1:5">
       <c r="A1138">
@@ -22594,18 +22366,6 @@
       <c r="A1188" t="s">
         <v>24</v>
       </c>
-      <c r="B1188" t="s">
-        <v>24</v>
-      </c>
-      <c r="C1188" t="s">
-        <v>24</v>
-      </c>
-      <c r="D1188" t="s">
-        <v>24</v>
-      </c>
-      <c r="E1188" t="s">
-        <v>24</v>
-      </c>
     </row>
     <row r="1189" spans="1:5">
       <c r="A1189">
@@ -23461,18 +23221,6 @@
       <c r="A1239" t="s">
         <v>25</v>
       </c>
-      <c r="B1239" t="s">
-        <v>25</v>
-      </c>
-      <c r="C1239" t="s">
-        <v>25</v>
-      </c>
-      <c r="D1239" t="s">
-        <v>25</v>
-      </c>
-      <c r="E1239" t="s">
-        <v>25</v>
-      </c>
     </row>
     <row r="1240" spans="1:5">
       <c r="A1240">
@@ -24328,18 +24076,6 @@
       <c r="A1290" t="s">
         <v>26</v>
       </c>
-      <c r="B1290" t="s">
-        <v>26</v>
-      </c>
-      <c r="C1290" t="s">
-        <v>26</v>
-      </c>
-      <c r="D1290" t="s">
-        <v>26</v>
-      </c>
-      <c r="E1290" t="s">
-        <v>26</v>
-      </c>
     </row>
     <row r="1291" spans="1:5">
       <c r="A1291">
@@ -25195,18 +24931,6 @@
       <c r="A1341" t="s">
         <v>27</v>
       </c>
-      <c r="B1341" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1341" t="s">
-        <v>27</v>
-      </c>
-      <c r="D1341" t="s">
-        <v>27</v>
-      </c>
-      <c r="E1341" t="s">
-        <v>27</v>
-      </c>
     </row>
     <row r="1342" spans="1:5">
       <c r="A1342">
@@ -26062,18 +25786,6 @@
       <c r="A1392" t="s">
         <v>28</v>
       </c>
-      <c r="B1392" t="s">
-        <v>28</v>
-      </c>
-      <c r="C1392" t="s">
-        <v>28</v>
-      </c>
-      <c r="D1392" t="s">
-        <v>28</v>
-      </c>
-      <c r="E1392" t="s">
-        <v>28</v>
-      </c>
     </row>
     <row r="1393" spans="1:5">
       <c r="A1393">
@@ -27439,18 +27151,6 @@
       <c r="A1473" t="s">
         <v>29</v>
       </c>
-      <c r="B1473" t="s">
-        <v>29</v>
-      </c>
-      <c r="C1473" t="s">
-        <v>29</v>
-      </c>
-      <c r="D1473" t="s">
-        <v>29</v>
-      </c>
-      <c r="E1473" t="s">
-        <v>29</v>
-      </c>
     </row>
     <row r="1474" spans="1:5">
       <c r="A1474">
@@ -28816,18 +28516,6 @@
       <c r="A1554" t="s">
         <v>30</v>
       </c>
-      <c r="B1554" t="s">
-        <v>30</v>
-      </c>
-      <c r="C1554" t="s">
-        <v>30</v>
-      </c>
-      <c r="D1554" t="s">
-        <v>30</v>
-      </c>
-      <c r="E1554" t="s">
-        <v>30</v>
-      </c>
     </row>
     <row r="1555" spans="1:5">
       <c r="A1555">
@@ -30193,18 +29881,6 @@
       <c r="A1635" t="s">
         <v>31</v>
       </c>
-      <c r="B1635" t="s">
-        <v>31</v>
-      </c>
-      <c r="C1635" t="s">
-        <v>31</v>
-      </c>
-      <c r="D1635" t="s">
-        <v>31</v>
-      </c>
-      <c r="E1635" t="s">
-        <v>31</v>
-      </c>
     </row>
     <row r="1636" spans="1:5">
       <c r="A1636">
@@ -30227,18 +29903,6 @@
       <c r="A1637" t="s">
         <v>32</v>
       </c>
-      <c r="B1637" t="s">
-        <v>32</v>
-      </c>
-      <c r="C1637" t="s">
-        <v>32</v>
-      </c>
-      <c r="D1637" t="s">
-        <v>32</v>
-      </c>
-      <c r="E1637" t="s">
-        <v>32</v>
-      </c>
     </row>
     <row r="1638" spans="1:5">
       <c r="A1638">
@@ -30261,18 +29925,6 @@
       <c r="A1639" t="s">
         <v>33</v>
       </c>
-      <c r="B1639" t="s">
-        <v>33</v>
-      </c>
-      <c r="C1639" t="s">
-        <v>33</v>
-      </c>
-      <c r="D1639" t="s">
-        <v>33</v>
-      </c>
-      <c r="E1639" t="s">
-        <v>33</v>
-      </c>
     </row>
     <row r="1640" spans="1:5">
       <c r="A1640">
@@ -30295,18 +29947,6 @@
       <c r="A1641" t="s">
         <v>34</v>
       </c>
-      <c r="B1641" t="s">
-        <v>34</v>
-      </c>
-      <c r="C1641" t="s">
-        <v>34</v>
-      </c>
-      <c r="D1641" t="s">
-        <v>34</v>
-      </c>
-      <c r="E1641" t="s">
-        <v>34</v>
-      </c>
     </row>
     <row r="1642" spans="1:5">
       <c r="A1642">
@@ -30327,18 +29967,6 @@
     </row>
     <row r="1643" spans="1:5">
       <c r="A1643" t="s">
-        <v>35</v>
-      </c>
-      <c r="B1643" t="s">
-        <v>35</v>
-      </c>
-      <c r="C1643" t="s">
-        <v>35</v>
-      </c>
-      <c r="D1643" t="s">
-        <v>35</v>
-      </c>
-      <c r="E1643" t="s">
         <v>35</v>
       </c>
     </row>

--- a/checking_list.xlsx
+++ b/checking_list.xlsx
@@ -31,97 +31,97 @@
     <t>Price</t>
   </si>
   <si>
-    <t>CI-24HC01713-1S</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-2S</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-3S</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-4S</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-5D</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-6D</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-7D</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-8D</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-9D</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-10D</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-11D</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-12D</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-13D</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-14D</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-15D</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-16D</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-17D</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-18D</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-19D</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-20D</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-21D</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-22D</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-23D</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-24D</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-25D</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-26D</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-10F</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-16F</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-17F</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-19F</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-26F</t>
+    <t>CI-24HC01713-1S " Invoice"  1/31</t>
+  </si>
+  <si>
+    <t>CI-24HC01713-2S " Invoice"  2/31</t>
+  </si>
+  <si>
+    <t>CI-24HC01713-3S " Invoice"  3/31</t>
+  </si>
+  <si>
+    <t>CI-24HC01713-4S " Invoice"  4/31</t>
+  </si>
+  <si>
+    <t>CI-24HC01713-5D " Invoice"  5/31</t>
+  </si>
+  <si>
+    <t>CI-24HC01713-6D " Invoice"  6/31</t>
+  </si>
+  <si>
+    <t>CI-24HC01713-7D " Invoice"  7/31</t>
+  </si>
+  <si>
+    <t>CI-24HC01713-8D " Invoice"  8/31</t>
+  </si>
+  <si>
+    <t>CI-24HC01713-9D " Invoice"  9/31</t>
+  </si>
+  <si>
+    <t>CI-24HC01713-10D " Invoice"  10/31</t>
+  </si>
+  <si>
+    <t>CI-24HC01713-11D " Invoice"  11/31</t>
+  </si>
+  <si>
+    <t>CI-24HC01713-12D " Invoice"  12/31</t>
+  </si>
+  <si>
+    <t>CI-24HC01713-13D " Invoice"  13/31</t>
+  </si>
+  <si>
+    <t>CI-24HC01713-14D " Invoice"  14/31</t>
+  </si>
+  <si>
+    <t>CI-24HC01713-15D " Invoice"  15/31</t>
+  </si>
+  <si>
+    <t>CI-24HC01713-16D " Invoice"  16/31</t>
+  </si>
+  <si>
+    <t>CI-24HC01713-17D " Invoice"  17/31</t>
+  </si>
+  <si>
+    <t>CI-24HC01713-18D " Invoice"  18/31</t>
+  </si>
+  <si>
+    <t>CI-24HC01713-19D " Invoice"  19/31</t>
+  </si>
+  <si>
+    <t>CI-24HC01713-20D " Invoice"  20/31</t>
+  </si>
+  <si>
+    <t>CI-24HC01713-21D " Invoice"  21/31</t>
+  </si>
+  <si>
+    <t>CI-24HC01713-22D " Invoice"  22/31</t>
+  </si>
+  <si>
+    <t>CI-24HC01713-23D " Invoice"  23/31</t>
+  </si>
+  <si>
+    <t>CI-24HC01713-24D " Invoice"  24/31</t>
+  </si>
+  <si>
+    <t>CI-24HC01713-25D " Invoice"  25/31</t>
+  </si>
+  <si>
+    <t>CI-24HC01713-26D " Invoice"  26/31</t>
+  </si>
+  <si>
+    <t>CI-24HC01713-10F " Invoice"  27/31</t>
+  </si>
+  <si>
+    <t>CI-24HC01713-16F " Invoice"  28/31</t>
+  </si>
+  <si>
+    <t>CI-24HC01713-17F " Invoice"  29/31</t>
+  </si>
+  <si>
+    <t>CI-24HC01713-19F " Invoice"  30/31</t>
+  </si>
+  <si>
+    <t>CI-24HC01713-26F " Invoice"  31/31</t>
   </si>
   <si>
     <t>1.2.03.01.0002</t>

--- a/checking_list.xlsx
+++ b/checking_list.xlsx
@@ -31,97 +31,97 @@
     <t>Price</t>
   </si>
   <si>
-    <t>CI-24HC01713-1S " Invoice"  1/31</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-2S " Invoice"  2/31</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-3S " Invoice"  3/31</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-4S " Invoice"  4/31</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-5D " Invoice"  5/31</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-6D " Invoice"  6/31</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-7D " Invoice"  7/31</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-8D " Invoice"  8/31</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-9D " Invoice"  9/31</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-10D " Invoice"  10/31</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-11D " Invoice"  11/31</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-12D " Invoice"  12/31</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-13D " Invoice"  13/31</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-14D " Invoice"  14/31</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-15D " Invoice"  15/31</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-16D " Invoice"  16/31</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-17D " Invoice"  17/31</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-18D " Invoice"  18/31</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-19D " Invoice"  19/31</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-20D " Invoice"  20/31</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-21D " Invoice"  21/31</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-22D " Invoice"  22/31</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-23D " Invoice"  23/31</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-24D " Invoice"  24/31</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-25D " Invoice"  25/31</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-26D " Invoice"  26/31</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-10F " Invoice"  27/31</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-16F " Invoice"  28/31</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-17F " Invoice"  29/31</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-19F " Invoice"  30/31</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-26F " Invoice"  31/31</t>
+    <t>CI-24HC01713-1S Invoice 1/31</t>
+  </si>
+  <si>
+    <t>CI-24HC01713-2S Invoice 2/31</t>
+  </si>
+  <si>
+    <t>CI-24HC01713-3S Invoice 3/31</t>
+  </si>
+  <si>
+    <t>CI-24HC01713-4S Invoice 4/31</t>
+  </si>
+  <si>
+    <t>CI-24HC01713-5D Invoice 5/31</t>
+  </si>
+  <si>
+    <t>CI-24HC01713-6D Invoice 6/31</t>
+  </si>
+  <si>
+    <t>CI-24HC01713-7D Invoice 7/31</t>
+  </si>
+  <si>
+    <t>CI-24HC01713-8D Invoice 8/31</t>
+  </si>
+  <si>
+    <t>CI-24HC01713-9D Invoice 9/31</t>
+  </si>
+  <si>
+    <t>CI-24HC01713-10D Invoice 10/31</t>
+  </si>
+  <si>
+    <t>CI-24HC01713-11D Invoice 11/31</t>
+  </si>
+  <si>
+    <t>CI-24HC01713-12D Invoice 12/31</t>
+  </si>
+  <si>
+    <t>CI-24HC01713-13D Invoice 13/31</t>
+  </si>
+  <si>
+    <t>CI-24HC01713-14D Invoice 14/31</t>
+  </si>
+  <si>
+    <t>CI-24HC01713-15D Invoice 15/31</t>
+  </si>
+  <si>
+    <t>CI-24HC01713-16D Invoice 16/31</t>
+  </si>
+  <si>
+    <t>CI-24HC01713-17D Invoice 17/31</t>
+  </si>
+  <si>
+    <t>CI-24HC01713-18D Invoice 18/31</t>
+  </si>
+  <si>
+    <t>CI-24HC01713-19D Invoice 19/31</t>
+  </si>
+  <si>
+    <t>CI-24HC01713-20D Invoice 20/31</t>
+  </si>
+  <si>
+    <t>CI-24HC01713-21D Invoice 21/31</t>
+  </si>
+  <si>
+    <t>CI-24HC01713-22D Invoice 22/31</t>
+  </si>
+  <si>
+    <t>CI-24HC01713-23D Invoice 23/31</t>
+  </si>
+  <si>
+    <t>CI-24HC01713-24D Invoice 24/31</t>
+  </si>
+  <si>
+    <t>CI-24HC01713-25D Invoice 25/31</t>
+  </si>
+  <si>
+    <t>CI-24HC01713-26D Invoice 26/31</t>
+  </si>
+  <si>
+    <t>CI-24HC01713-10F Invoice 27/31</t>
+  </si>
+  <si>
+    <t>CI-24HC01713-16F Invoice 28/31</t>
+  </si>
+  <si>
+    <t>CI-24HC01713-17F Invoice 29/31</t>
+  </si>
+  <si>
+    <t>CI-24HC01713-19F Invoice 30/31</t>
+  </si>
+  <si>
+    <t>CI-24HC01713-26F Invoice 31/31</t>
   </si>
   <si>
     <t>1.2.03.01.0002</t>

--- a/checking_list.xlsx
+++ b/checking_list.xlsx
@@ -52,4933 +52,4933 @@
     <t>IGST</t>
   </si>
   <si>
-    <t>CI-24HC01713-1S Invoice 1/31</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-2S Invoice 2/31</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-3S Invoice 3/31</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-4S Invoice 4/31</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-5D Invoice 5/31</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-6D Invoice 6/31</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-7D Invoice 7/31</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-8D Invoice 8/31</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-9D Invoice 9/31</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-10D Invoice 10/31</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-11D Invoice 11/31</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-12D Invoice 12/31</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-13D Invoice 13/31</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-14D Invoice 14/31</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-15D Invoice 15/31</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-16D Invoice 16/31</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-17D Invoice 17/31</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-18D Invoice 18/31</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-19D Invoice 19/31</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-20D Invoice 20/31</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-21D Invoice 21/31</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-22D Invoice 22/31</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-23D Invoice 23/31</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-24D Invoice 24/31</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-25D Invoice 25/31</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-26D Invoice 26/31</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-10F Invoice 27/31</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-16F Invoice 28/31</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-17F Invoice 29/31</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-19F Invoice 30/31</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-26F Invoice 31/31</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-1S_1</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-1S_2</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-1S_3</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-1S_4</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-1S_5</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-1S_6</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-1S_7</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-1S_8</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-1S_9</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-1S_10</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-1S_11</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-1S_12</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-1S_13</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-1S_14</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-1S_15</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-1S_16</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-1S_17</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-1S_18</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-1S_19</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-1S_20</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-1S_21</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-1S_22</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-1S_23</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-1S_24</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-1S_25</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-1S_26</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-1S_27</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-1S_28</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-1S_29</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-1S_30</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-1S_31</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-1S_32</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-1S_33</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-1S_34</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-1S_35</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-1S_36</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-1S_37</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-1S_38</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-1S_39</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-1S_40</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-1S_41</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-1S_42</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-1S_43</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-1S_44</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-1S_45</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-1S_46</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-1S_47</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-1S_48</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-1S_49</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-1S_50</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-1S_51</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-1S_52</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-1S_53</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-1S_54</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-1S_55</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-1S_56</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-1S_57</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-1S_58</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-1S_59</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-1S_60</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-1S_61</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-1S_62</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-1S_63</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-1S_64</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-1S_65</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-1S_66</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-1S_67</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-1S_68</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-1S_69</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-1S_70</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-1S_71</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-1S_72</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-1S_73</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-1S_74</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-1S_75</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-1S_76</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-1S_77</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-1S_78</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-1S_79</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-1S_80</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-1S_81</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-1S_82</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-1S_83</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-1S_84</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-1S_85</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-1S_86</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-1S_87</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-1S_88</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-1S_89</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-1S_90</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-1S_91</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-1S_92</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-1S_93</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-1S_94</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-2S_1</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-2S_2</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-2S_3</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-2S_4</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-2S_5</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-2S_6</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-2S_7</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-2S_8</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-2S_9</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-2S_10</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-2S_11</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-2S_12</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-2S_13</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-2S_14</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-2S_15</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-2S_16</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-2S_17</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-2S_18</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-2S_19</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-2S_20</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-2S_21</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-2S_22</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-2S_23</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-2S_24</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-2S_25</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-2S_26</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-2S_27</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-2S_28</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-2S_29</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-2S_30</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-2S_31</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-2S_32</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-2S_33</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-2S_34</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-2S_35</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-2S_36</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-2S_37</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-2S_38</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-2S_39</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-2S_40</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-2S_41</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-2S_42</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-2S_43</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-2S_44</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-2S_45</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-2S_46</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-2S_47</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-2S_48</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-2S_49</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-2S_50</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-2S_51</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-2S_52</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-2S_53</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-2S_54</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-2S_55</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-2S_56</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-2S_57</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-2S_58</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-2S_59</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-2S_60</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-2S_61</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-2S_62</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-2S_63</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-2S_64</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-2S_65</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-2S_66</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-2S_67</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-2S_68</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-2S_69</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-2S_70</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-2S_71</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-2S_72</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-2S_73</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-2S_74</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-2S_75</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-2S_76</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-2S_77</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-2S_78</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-2S_79</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-2S_80</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-2S_81</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-2S_82</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-2S_83</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-2S_84</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-2S_85</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-2S_86</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-2S_87</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-2S_88</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-2S_89</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-2S_90</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-2S_91</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-2S_92</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-2S_93</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-2S_94</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-2S_95</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-2S_96</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-3S_1</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-3S_2</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-3S_3</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-3S_4</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-3S_5</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-3S_6</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-3S_7</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-3S_8</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-3S_9</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-3S_10</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-3S_11</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-3S_12</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-3S_13</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-3S_14</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-3S_15</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-3S_16</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-3S_17</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-3S_18</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-3S_19</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-3S_20</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-3S_21</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-3S_22</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-3S_23</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-3S_24</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-3S_25</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-3S_26</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-3S_27</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-3S_28</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-3S_29</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-3S_30</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-3S_31</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-3S_32</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-3S_33</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-3S_34</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-3S_35</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-3S_36</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-3S_37</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-3S_38</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-3S_39</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-3S_40</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-3S_41</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-3S_42</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-3S_43</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-3S_44</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-3S_45</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-3S_46</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-3S_47</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-3S_48</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-3S_49</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-3S_50</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-3S_51</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-3S_52</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-3S_53</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-3S_54</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-3S_55</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-3S_56</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-3S_57</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-3S_58</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-3S_59</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-3S_60</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-3S_61</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-3S_62</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-3S_63</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-3S_64</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-3S_65</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-3S_66</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-3S_67</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-3S_68</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-3S_69</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-3S_70</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-3S_71</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-3S_72</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-3S_73</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-3S_74</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-3S_75</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-3S_76</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-3S_77</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-3S_78</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-3S_79</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-3S_80</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-3S_81</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-3S_82</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-3S_83</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-3S_84</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-4S_1</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-4S_2</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-4S_3</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-4S_4</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-4S_5</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-4S_6</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-4S_7</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-4S_8</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-4S_9</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-4S_10</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-4S_11</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-4S_12</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-4S_13</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-4S_14</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-4S_15</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-4S_16</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-4S_17</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-4S_18</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-4S_19</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-4S_20</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-4S_21</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-4S_22</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-4S_23</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-4S_24</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-4S_25</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-4S_26</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-4S_27</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-4S_28</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-4S_29</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-4S_30</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-4S_31</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-4S_32</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-4S_33</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-4S_34</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-4S_35</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-4S_36</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-4S_37</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-4S_38</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-4S_39</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-4S_40</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-4S_41</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-4S_42</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-4S_43</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-4S_44</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-4S_45</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-4S_46</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-4S_47</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-4S_48</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-4S_49</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-4S_50</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-4S_51</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-4S_52</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-4S_53</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-4S_54</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-4S_55</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-4S_56</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-4S_57</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-4S_58</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-4S_59</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-4S_60</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-4S_61</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-4S_62</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-4S_63</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-4S_64</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-4S_65</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-4S_66</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-4S_67</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-4S_68</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-4S_69</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-4S_70</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-4S_71</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-4S_72</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-4S_73</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-4S_74</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-4S_75</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-4S_76</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-4S_77</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-4S_78</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-4S_79</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-4S_80</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-4S_81</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-4S_82</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-4S_83</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-4S_84</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-5D_1</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-5D_2</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-5D_3</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-5D_4</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-5D_5</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-5D_6</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-5D_7</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-5D_8</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-5D_9</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-5D_10</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-5D_11</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-5D_12</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-5D_13</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-5D_14</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-5D_15</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-5D_16</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-5D_17</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-5D_18</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-5D_19</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-5D_20</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-5D_21</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-5D_22</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-5D_23</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-5D_24</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-5D_25</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-5D_26</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-5D_27</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-5D_28</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-5D_29</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-5D_30</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-5D_31</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-5D_32</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-5D_33</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-5D_34</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-5D_35</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-5D_36</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-5D_37</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-5D_38</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-5D_39</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-5D_40</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-5D_41</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-5D_42</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-5D_43</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-5D_44</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-5D_45</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-5D_46</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-5D_47</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-5D_48</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-5D_49</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-5D_50</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-5D_51</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-5D_52</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-6D_1</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-6D_2</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-6D_3</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-6D_4</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-6D_5</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-6D_6</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-6D_7</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-6D_8</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-6D_9</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-6D_10</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-6D_11</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-6D_12</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-6D_13</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-6D_14</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-6D_15</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-6D_16</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-6D_17</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-6D_18</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-6D_19</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-6D_20</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-6D_21</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-6D_22</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-6D_23</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-6D_24</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-6D_25</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-6D_26</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-6D_27</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-6D_28</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-6D_29</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-6D_30</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-6D_31</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-6D_32</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-6D_33</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-6D_34</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-6D_35</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-6D_36</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-6D_37</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-7D_1</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-7D_2</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-7D_3</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-7D_4</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-7D_5</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-7D_6</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-7D_7</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-7D_8</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-7D_9</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-7D_10</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-7D_11</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-7D_12</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-7D_13</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-7D_14</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-7D_15</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-7D_16</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-7D_17</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-7D_18</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-7D_19</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-7D_20</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-7D_21</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-7D_22</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-7D_23</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-7D_24</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-7D_25</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-7D_26</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-7D_27</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-7D_28</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-7D_29</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-7D_30</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-7D_31</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-7D_32</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-7D_33</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-7D_34</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-8D_1</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-8D_2</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-8D_3</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-8D_4</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-8D_5</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-8D_6</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-8D_7</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-8D_8</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-8D_9</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-8D_10</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-8D_11</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-8D_12</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-8D_13</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-8D_14</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-8D_15</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-8D_16</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-8D_17</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-8D_18</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-8D_19</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-8D_20</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-8D_21</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-8D_22</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-8D_23</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-8D_24</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-8D_25</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-8D_26</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-8D_27</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-8D_28</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-8D_29</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-8D_30</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-8D_31</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-8D_32</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-8D_33</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-8D_34</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-9D_1</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-9D_2</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-9D_3</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-9D_4</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-9D_5</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-9D_6</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-9D_7</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-9D_8</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-9D_9</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-9D_10</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-9D_11</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-9D_12</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-9D_13</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-9D_14</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-9D_15</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-9D_16</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-9D_17</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-9D_18</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-9D_19</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-9D_20</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-9D_21</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-9D_22</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-9D_23</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-9D_24</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-9D_25</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-9D_26</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-9D_27</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-9D_28</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-9D_29</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-9D_30</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-9D_31</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-9D_32</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-9D_33</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-9D_34</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-9D_35</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-9D_36</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-9D_37</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-9D_38</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-9D_39</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-9D_40</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-9D_41</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-9D_42</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-9D_43</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-9D_44</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-9D_45</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-9D_46</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-9D_47</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-9D_48</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-9D_49</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-9D_50</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-9D_51</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-9D_52</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-9D_53</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-9D_54</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-9D_55</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-9D_56</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-9D_57</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-9D_58</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-9D_59</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-9D_60</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-9D_61</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-9D_62</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-9D_63</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-9D_64</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-9D_65</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-9D_66</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-9D_67</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-9D_68</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-9D_69</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-10D_1</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-10D_2</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-10D_3</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-10D_4</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-10D_5</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-10D_6</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-10D_7</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-10D_8</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-10D_9</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-10D_10</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-10D_11</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-10D_12</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-10D_13</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-10D_14</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-10D_15</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-10D_16</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-10D_17</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-10D_18</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-10D_19</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-10D_20</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-10D_21</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-10D_22</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-10D_23</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-10D_24</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-10D_25</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-10D_26</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-10D_27</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-10D_28</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-10D_29</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-10D_30</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-10D_31</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-10D_32</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-10D_33</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-10D_34</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-10D_35</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-10D_36</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-10D_37</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-10D_38</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-10D_39</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-10D_40</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-10D_41</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-10D_42</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-10D_43</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-10D_44</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-10D_45</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-10D_46</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-10D_47</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-10D_48</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-10D_49</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-10D_50</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-10D_51</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-10D_52</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-10D_53</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-10D_54</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-10D_55</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-10D_56</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-10D_57</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-10D_58</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-10D_59</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-10D_60</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-10D_61</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-10D_62</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-10D_63</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-10D_64</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-10D_65</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-10D_66</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-10D_67</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-11D_1</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-11D_2</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-11D_3</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-11D_4</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-11D_5</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-11D_6</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-11D_7</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-11D_8</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-11D_9</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-11D_10</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-11D_11</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-11D_12</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-11D_13</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-11D_14</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-11D_15</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-11D_16</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-11D_17</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-11D_18</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-11D_19</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-11D_20</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-11D_21</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-11D_22</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-11D_23</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-11D_24</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-11D_25</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-11D_26</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-11D_27</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-11D_28</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-11D_29</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-11D_30</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-11D_31</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-11D_32</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-11D_33</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-11D_34</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-11D_35</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-11D_36</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-11D_37</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-11D_38</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-11D_39</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-11D_40</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-11D_41</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-11D_42</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-11D_43</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-11D_44</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-11D_45</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-11D_46</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-11D_47</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-11D_48</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-11D_49</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-11D_50</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-11D_51</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-11D_52</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-11D_53</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-11D_54</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-11D_55</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-11D_56</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-11D_57</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-11D_58</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-11D_59</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-11D_60</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-11D_61</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-11D_62</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-11D_63</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-11D_64</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-11D_65</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-11D_66</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-12D_1</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-12D_2</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-12D_3</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-12D_4</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-12D_5</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-12D_6</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-12D_7</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-12D_8</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-12D_9</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-12D_10</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-12D_11</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-12D_12</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-12D_13</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-12D_14</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-12D_15</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-12D_16</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-12D_17</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-12D_18</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-12D_19</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-12D_20</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-12D_21</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-12D_22</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-12D_23</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-12D_24</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-12D_25</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-12D_26</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-12D_27</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-12D_28</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-12D_29</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-12D_30</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-12D_31</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-12D_32</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-12D_33</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-12D_34</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-12D_35</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-12D_36</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-12D_37</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-12D_38</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-12D_39</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-12D_40</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-12D_41</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-12D_42</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-12D_43</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-12D_44</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-12D_45</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-12D_46</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-12D_47</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-12D_48</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-12D_49</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-12D_50</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-12D_51</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-12D_52</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-12D_53</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-12D_54</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-12D_55</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-12D_56</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-12D_57</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-12D_58</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-12D_59</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-12D_60</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-12D_61</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-12D_62</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-12D_63</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-12D_64</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-12D_65</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-12D_66</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-13D_1</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-13D_2</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-13D_3</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-13D_4</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-13D_5</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-13D_6</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-13D_7</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-13D_8</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-13D_9</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-13D_10</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-13D_11</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-13D_12</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-13D_13</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-13D_14</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-13D_15</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-13D_16</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-13D_17</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-13D_18</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-13D_19</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-13D_20</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-13D_21</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-13D_22</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-13D_23</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-13D_24</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-13D_25</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-13D_26</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-13D_27</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-13D_28</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-13D_29</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-13D_30</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-13D_31</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-13D_32</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-13D_33</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-13D_34</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-13D_35</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-13D_36</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-13D_37</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-13D_38</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-13D_39</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-13D_40</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-13D_41</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-13D_42</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-13D_43</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-13D_44</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-13D_45</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-13D_46</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-13D_47</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-13D_48</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-13D_49</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-13D_50</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-13D_51</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-13D_52</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-13D_53</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-13D_54</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-13D_55</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-13D_56</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-13D_57</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-13D_58</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-13D_59</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-13D_60</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-13D_61</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-13D_62</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-13D_63</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-13D_64</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-13D_65</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-13D_66</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-13D_67</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-14D_1</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-14D_2</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-14D_3</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-14D_4</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-14D_5</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-14D_6</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-14D_7</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-14D_8</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-14D_9</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-14D_10</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-14D_11</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-14D_12</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-14D_13</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-14D_14</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-14D_15</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-14D_16</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-14D_17</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-14D_18</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-14D_19</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-14D_20</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-14D_21</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-14D_22</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-14D_23</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-14D_24</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-14D_25</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-14D_26</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-14D_27</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-14D_28</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-14D_29</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-14D_30</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-14D_31</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-14D_32</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-14D_33</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-14D_34</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-14D_35</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-14D_36</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-14D_37</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-14D_38</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-14D_39</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-14D_40</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-14D_41</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-14D_42</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-14D_43</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-14D_44</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-14D_45</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-14D_46</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-14D_47</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-14D_48</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-14D_49</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-14D_50</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-14D_51</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-14D_52</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-14D_53</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-14D_54</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-14D_55</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-14D_56</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-14D_57</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-14D_58</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-14D_59</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-14D_60</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-14D_61</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-14D_62</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-14D_63</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-14D_64</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-14D_65</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-14D_66</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-15D_1</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-15D_2</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-15D_3</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-15D_4</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-15D_5</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-15D_6</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-15D_7</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-15D_8</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-15D_9</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-15D_10</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-15D_11</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-15D_12</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-15D_13</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-15D_14</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-15D_15</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-15D_16</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-15D_17</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-15D_18</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-15D_19</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-15D_20</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-15D_21</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-15D_22</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-15D_23</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-15D_24</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-15D_25</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-15D_26</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-15D_27</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-15D_28</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-15D_29</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-15D_30</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-15D_31</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-15D_32</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-15D_33</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-15D_34</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-15D_35</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-15D_36</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-15D_37</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-15D_38</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-15D_39</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-15D_40</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-15D_41</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-15D_42</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-15D_43</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-15D_44</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-15D_45</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-15D_46</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-15D_47</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-15D_48</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-15D_49</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-15D_50</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-16D_1</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-16D_2</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-16D_3</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-16D_4</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-16D_5</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-16D_6</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-16D_7</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-16D_8</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-16D_9</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-16D_10</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-16D_11</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-16D_12</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-16D_13</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-16D_14</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-16D_15</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-16D_16</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-16D_17</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-16D_18</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-16D_19</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-16D_20</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-16D_21</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-16D_22</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-16D_23</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-16D_24</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-16D_25</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-16D_26</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-16D_27</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-16D_28</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-16D_29</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-16D_30</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-16D_31</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-16D_32</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-16D_33</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-16D_34</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-16D_35</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-16D_36</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-16D_37</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-16D_38</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-16D_39</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-16D_40</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-16D_41</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-16D_42</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-16D_43</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-16D_44</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-16D_45</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-16D_46</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-16D_47</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-16D_48</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-16D_49</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-16D_50</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-17D_1</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-17D_2</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-17D_3</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-17D_4</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-17D_5</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-17D_6</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-17D_7</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-17D_8</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-17D_9</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-17D_10</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-17D_11</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-17D_12</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-17D_13</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-17D_14</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-17D_15</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-17D_16</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-17D_17</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-17D_18</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-17D_19</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-17D_20</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-17D_21</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-17D_22</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-17D_23</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-17D_24</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-17D_25</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-17D_26</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-17D_27</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-17D_28</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-17D_29</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-17D_30</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-17D_31</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-17D_32</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-17D_33</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-17D_34</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-17D_35</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-17D_36</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-17D_37</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-17D_38</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-17D_39</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-17D_40</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-17D_41</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-17D_42</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-17D_43</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-17D_44</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-17D_45</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-17D_46</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-17D_47</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-17D_48</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-17D_49</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-17D_50</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-18D_1</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-18D_2</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-18D_3</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-18D_4</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-18D_5</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-18D_6</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-18D_7</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-18D_8</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-18D_9</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-18D_10</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-18D_11</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-18D_12</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-18D_13</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-18D_14</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-18D_15</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-18D_16</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-18D_17</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-18D_18</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-18D_19</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-18D_20</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-18D_21</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-18D_22</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-18D_23</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-18D_24</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-18D_25</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-18D_26</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-18D_27</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-18D_28</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-18D_29</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-18D_30</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-18D_31</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-18D_32</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-18D_33</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-18D_34</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-18D_35</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-18D_36</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-18D_37</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-18D_38</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-18D_39</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-18D_40</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-18D_41</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-18D_42</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-18D_43</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-18D_44</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-18D_45</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-18D_46</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-18D_47</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-18D_48</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-18D_49</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-18D_50</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-18D_51</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-19D_1</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-19D_2</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-19D_3</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-19D_4</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-19D_5</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-19D_6</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-19D_7</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-19D_8</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-19D_9</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-19D_10</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-19D_11</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-19D_12</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-19D_13</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-19D_14</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-19D_15</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-19D_16</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-19D_17</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-19D_18</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-19D_19</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-19D_20</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-19D_21</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-19D_22</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-19D_23</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-19D_24</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-19D_25</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-19D_26</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-19D_27</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-19D_28</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-19D_29</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-19D_30</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-19D_31</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-19D_32</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-19D_33</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-19D_34</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-19D_35</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-19D_36</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-19D_37</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-19D_38</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-19D_39</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-19D_40</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-19D_41</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-19D_42</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-19D_43</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-19D_44</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-19D_45</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-19D_46</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-19D_47</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-19D_48</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-19D_49</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-19D_50</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-20D_1</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-20D_2</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-20D_3</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-20D_4</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-20D_5</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-20D_6</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-20D_7</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-20D_8</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-20D_9</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-20D_10</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-20D_11</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-20D_12</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-20D_13</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-20D_14</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-20D_15</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-20D_16</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-20D_17</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-20D_18</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-20D_19</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-20D_20</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-20D_21</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-20D_22</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-20D_23</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-20D_24</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-20D_25</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-20D_26</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-20D_27</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-20D_28</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-20D_29</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-20D_30</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-20D_31</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-20D_32</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-20D_33</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-20D_34</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-20D_35</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-20D_36</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-20D_37</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-20D_38</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-20D_39</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-20D_40</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-20D_41</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-20D_42</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-20D_43</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-20D_44</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-20D_45</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-20D_46</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-20D_47</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-20D_48</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-20D_49</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-20D_50</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-21D_1</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-21D_2</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-21D_3</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-21D_4</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-21D_5</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-21D_6</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-21D_7</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-21D_8</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-21D_9</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-21D_10</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-21D_11</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-21D_12</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-21D_13</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-21D_14</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-21D_15</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-21D_16</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-21D_17</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-21D_18</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-21D_19</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-21D_20</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-21D_21</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-21D_22</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-21D_23</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-21D_24</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-21D_25</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-21D_26</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-21D_27</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-21D_28</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-21D_29</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-21D_30</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-21D_31</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-21D_32</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-21D_33</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-21D_34</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-21D_35</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-21D_36</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-21D_37</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-21D_38</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-21D_39</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-21D_40</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-21D_41</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-21D_42</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-21D_43</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-21D_44</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-21D_45</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-21D_46</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-21D_47</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-21D_48</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-21D_49</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-21D_50</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-22D_1</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-22D_2</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-22D_3</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-22D_4</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-22D_5</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-22D_6</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-22D_7</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-22D_8</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-22D_9</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-22D_10</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-22D_11</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-22D_12</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-22D_13</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-22D_14</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-22D_15</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-22D_16</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-22D_17</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-22D_18</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-22D_19</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-22D_20</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-22D_21</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-22D_22</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-22D_23</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-22D_24</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-22D_25</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-22D_26</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-22D_27</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-22D_28</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-22D_29</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-22D_30</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-22D_31</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-22D_32</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-22D_33</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-22D_34</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-22D_35</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-22D_36</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-22D_37</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-22D_38</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-22D_39</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-22D_40</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-22D_41</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-22D_42</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-22D_43</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-22D_44</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-22D_45</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-22D_46</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-22D_47</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-22D_48</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-22D_49</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-22D_50</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-23D_1</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-23D_2</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-23D_3</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-23D_4</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-23D_5</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-23D_6</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-23D_7</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-23D_8</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-23D_9</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-23D_10</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-23D_11</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-23D_12</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-23D_13</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-23D_14</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-23D_15</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-23D_16</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-23D_17</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-23D_18</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-23D_19</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-23D_20</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-23D_21</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-23D_22</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-23D_23</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-23D_24</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-23D_25</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-23D_26</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-23D_27</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-23D_28</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-23D_29</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-23D_30</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-23D_31</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-23D_32</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-23D_33</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-23D_34</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-23D_35</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-23D_36</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-23D_37</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-23D_38</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-23D_39</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-23D_40</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-23D_41</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-23D_42</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-23D_43</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-23D_44</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-23D_45</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-23D_46</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-23D_47</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-23D_48</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-23D_49</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-23D_50</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-24D_1</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-24D_2</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-24D_3</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-24D_4</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-24D_5</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-24D_6</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-24D_7</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-24D_8</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-24D_9</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-24D_10</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-24D_11</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-24D_12</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-24D_13</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-24D_14</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-24D_15</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-24D_16</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-24D_17</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-24D_18</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-24D_19</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-24D_20</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-24D_21</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-24D_22</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-24D_23</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-24D_24</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-24D_25</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-24D_26</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-24D_27</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-24D_28</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-24D_29</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-24D_30</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-24D_31</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-24D_32</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-24D_33</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-24D_34</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-24D_35</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-24D_36</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-24D_37</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-24D_38</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-24D_39</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-24D_40</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-24D_41</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-24D_42</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-24D_43</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-24D_44</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-24D_45</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-24D_46</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-24D_47</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-24D_48</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-24D_49</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-24D_50</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-24D_51</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-24D_52</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-24D_53</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-24D_54</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-24D_55</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-24D_56</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-24D_57</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-24D_58</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-24D_59</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-24D_60</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-24D_61</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-24D_62</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-24D_63</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-24D_64</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-24D_65</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-24D_66</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-24D_67</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-24D_68</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-24D_69</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-24D_70</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-24D_71</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-24D_72</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-24D_73</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-24D_74</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-24D_75</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-24D_76</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-24D_77</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-24D_78</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-24D_79</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-24D_80</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-25D_1</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-25D_2</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-25D_3</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-25D_4</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-25D_5</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-25D_6</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-25D_7</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-25D_8</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-25D_9</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-25D_10</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-25D_11</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-25D_12</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-25D_13</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-25D_14</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-25D_15</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-25D_16</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-25D_17</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-25D_18</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-25D_19</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-25D_20</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-25D_21</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-25D_22</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-25D_23</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-25D_24</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-25D_25</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-25D_26</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-25D_27</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-25D_28</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-25D_29</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-25D_30</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-25D_31</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-25D_32</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-25D_33</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-25D_34</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-25D_35</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-25D_36</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-25D_37</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-25D_38</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-25D_39</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-25D_40</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-25D_41</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-25D_42</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-25D_43</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-25D_44</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-25D_45</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-25D_46</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-25D_47</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-25D_48</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-25D_49</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-25D_50</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-25D_51</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-25D_52</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-25D_53</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-25D_54</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-25D_55</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-25D_56</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-25D_57</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-25D_58</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-25D_59</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-25D_60</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-25D_61</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-25D_62</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-25D_63</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-25D_64</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-25D_65</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-25D_66</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-25D_67</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-25D_68</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-25D_69</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-25D_70</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-25D_71</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-25D_72</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-25D_73</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-25D_74</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-25D_75</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-25D_76</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-25D_77</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-25D_78</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-25D_79</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-25D_80</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-26D_1</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-26D_2</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-26D_3</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-26D_4</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-26D_5</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-26D_6</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-26D_7</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-26D_8</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-26D_9</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-26D_10</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-26D_11</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-26D_12</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-26D_13</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-26D_14</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-26D_15</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-26D_16</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-26D_17</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-26D_18</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-26D_19</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-26D_20</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-26D_21</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-26D_22</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-26D_23</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-26D_24</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-26D_25</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-26D_26</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-26D_27</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-26D_28</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-26D_29</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-26D_30</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-26D_31</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-26D_32</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-26D_33</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-26D_34</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-26D_35</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-26D_36</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-26D_37</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-26D_38</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-26D_39</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-26D_40</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-26D_41</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-26D_42</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-26D_43</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-26D_44</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-26D_45</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-26D_46</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-26D_47</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-26D_48</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-26D_49</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-26D_50</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-26D_51</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-26D_52</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-26D_53</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-26D_54</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-26D_55</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-26D_56</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-26D_57</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-26D_58</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-26D_59</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-26D_60</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-26D_61</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-26D_62</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-26D_63</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-26D_64</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-26D_65</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-26D_66</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-26D_67</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-26D_68</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-26D_69</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-26D_70</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-26D_71</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-26D_72</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-26D_73</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-26D_74</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-26D_75</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-26D_76</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-26D_77</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-26D_78</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-26D_79</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-26D_80</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-10F_1</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-16F_1</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-17F_1</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-19F_1</t>
-  </si>
-  <si>
-    <t>CI-24HC01713-26F_1</t>
+    <t>24HC01713-1S Invoice 1/31</t>
+  </si>
+  <si>
+    <t>24HC01713-2S Invoice 2/31</t>
+  </si>
+  <si>
+    <t>24HC01713-3S Invoice 3/31</t>
+  </si>
+  <si>
+    <t>24HC01713-4S Invoice 4/31</t>
+  </si>
+  <si>
+    <t>24HC01713-5D Invoice 5/31</t>
+  </si>
+  <si>
+    <t>24HC01713-6D Invoice 6/31</t>
+  </si>
+  <si>
+    <t>24HC01713-7D Invoice 7/31</t>
+  </si>
+  <si>
+    <t>24HC01713-8D Invoice 8/31</t>
+  </si>
+  <si>
+    <t>24HC01713-9D Invoice 9/31</t>
+  </si>
+  <si>
+    <t>24HC01713-10D Invoice 10/31</t>
+  </si>
+  <si>
+    <t>24HC01713-11D Invoice 11/31</t>
+  </si>
+  <si>
+    <t>24HC01713-12D Invoice 12/31</t>
+  </si>
+  <si>
+    <t>24HC01713-13D Invoice 13/31</t>
+  </si>
+  <si>
+    <t>24HC01713-14D Invoice 14/31</t>
+  </si>
+  <si>
+    <t>24HC01713-15D Invoice 15/31</t>
+  </si>
+  <si>
+    <t>24HC01713-16D Invoice 16/31</t>
+  </si>
+  <si>
+    <t>24HC01713-17D Invoice 17/31</t>
+  </si>
+  <si>
+    <t>24HC01713-18D Invoice 18/31</t>
+  </si>
+  <si>
+    <t>24HC01713-19D Invoice 19/31</t>
+  </si>
+  <si>
+    <t>24HC01713-20D Invoice 20/31</t>
+  </si>
+  <si>
+    <t>24HC01713-21D Invoice 21/31</t>
+  </si>
+  <si>
+    <t>24HC01713-22D Invoice 22/31</t>
+  </si>
+  <si>
+    <t>24HC01713-23D Invoice 23/31</t>
+  </si>
+  <si>
+    <t>24HC01713-24D Invoice 24/31</t>
+  </si>
+  <si>
+    <t>24HC01713-25D Invoice 25/31</t>
+  </si>
+  <si>
+    <t>24HC01713-26D Invoice 26/31</t>
+  </si>
+  <si>
+    <t>24HC01713-10F Invoice 27/31</t>
+  </si>
+  <si>
+    <t>24HC01713-16F Invoice 28/31</t>
+  </si>
+  <si>
+    <t>24HC01713-17F Invoice 29/31</t>
+  </si>
+  <si>
+    <t>24HC01713-19F Invoice 30/31</t>
+  </si>
+  <si>
+    <t>24HC01713-26F Invoice 31/31</t>
+  </si>
+  <si>
+    <t>24HC01713-1S_1</t>
+  </si>
+  <si>
+    <t>24HC01713-1S_2</t>
+  </si>
+  <si>
+    <t>24HC01713-1S_3</t>
+  </si>
+  <si>
+    <t>24HC01713-1S_4</t>
+  </si>
+  <si>
+    <t>24HC01713-1S_5</t>
+  </si>
+  <si>
+    <t>24HC01713-1S_6</t>
+  </si>
+  <si>
+    <t>24HC01713-1S_7</t>
+  </si>
+  <si>
+    <t>24HC01713-1S_8</t>
+  </si>
+  <si>
+    <t>24HC01713-1S_9</t>
+  </si>
+  <si>
+    <t>24HC01713-1S_10</t>
+  </si>
+  <si>
+    <t>24HC01713-1S_11</t>
+  </si>
+  <si>
+    <t>24HC01713-1S_12</t>
+  </si>
+  <si>
+    <t>24HC01713-1S_13</t>
+  </si>
+  <si>
+    <t>24HC01713-1S_14</t>
+  </si>
+  <si>
+    <t>24HC01713-1S_15</t>
+  </si>
+  <si>
+    <t>24HC01713-1S_16</t>
+  </si>
+  <si>
+    <t>24HC01713-1S_17</t>
+  </si>
+  <si>
+    <t>24HC01713-1S_18</t>
+  </si>
+  <si>
+    <t>24HC01713-1S_19</t>
+  </si>
+  <si>
+    <t>24HC01713-1S_20</t>
+  </si>
+  <si>
+    <t>24HC01713-1S_21</t>
+  </si>
+  <si>
+    <t>24HC01713-1S_22</t>
+  </si>
+  <si>
+    <t>24HC01713-1S_23</t>
+  </si>
+  <si>
+    <t>24HC01713-1S_24</t>
+  </si>
+  <si>
+    <t>24HC01713-1S_25</t>
+  </si>
+  <si>
+    <t>24HC01713-1S_26</t>
+  </si>
+  <si>
+    <t>24HC01713-1S_27</t>
+  </si>
+  <si>
+    <t>24HC01713-1S_28</t>
+  </si>
+  <si>
+    <t>24HC01713-1S_29</t>
+  </si>
+  <si>
+    <t>24HC01713-1S_30</t>
+  </si>
+  <si>
+    <t>24HC01713-1S_31</t>
+  </si>
+  <si>
+    <t>24HC01713-1S_32</t>
+  </si>
+  <si>
+    <t>24HC01713-1S_33</t>
+  </si>
+  <si>
+    <t>24HC01713-1S_34</t>
+  </si>
+  <si>
+    <t>24HC01713-1S_35</t>
+  </si>
+  <si>
+    <t>24HC01713-1S_36</t>
+  </si>
+  <si>
+    <t>24HC01713-1S_37</t>
+  </si>
+  <si>
+    <t>24HC01713-1S_38</t>
+  </si>
+  <si>
+    <t>24HC01713-1S_39</t>
+  </si>
+  <si>
+    <t>24HC01713-1S_40</t>
+  </si>
+  <si>
+    <t>24HC01713-1S_41</t>
+  </si>
+  <si>
+    <t>24HC01713-1S_42</t>
+  </si>
+  <si>
+    <t>24HC01713-1S_43</t>
+  </si>
+  <si>
+    <t>24HC01713-1S_44</t>
+  </si>
+  <si>
+    <t>24HC01713-1S_45</t>
+  </si>
+  <si>
+    <t>24HC01713-1S_46</t>
+  </si>
+  <si>
+    <t>24HC01713-1S_47</t>
+  </si>
+  <si>
+    <t>24HC01713-1S_48</t>
+  </si>
+  <si>
+    <t>24HC01713-1S_49</t>
+  </si>
+  <si>
+    <t>24HC01713-1S_50</t>
+  </si>
+  <si>
+    <t>24HC01713-1S_51</t>
+  </si>
+  <si>
+    <t>24HC01713-1S_52</t>
+  </si>
+  <si>
+    <t>24HC01713-1S_53</t>
+  </si>
+  <si>
+    <t>24HC01713-1S_54</t>
+  </si>
+  <si>
+    <t>24HC01713-1S_55</t>
+  </si>
+  <si>
+    <t>24HC01713-1S_56</t>
+  </si>
+  <si>
+    <t>24HC01713-1S_57</t>
+  </si>
+  <si>
+    <t>24HC01713-1S_58</t>
+  </si>
+  <si>
+    <t>24HC01713-1S_59</t>
+  </si>
+  <si>
+    <t>24HC01713-1S_60</t>
+  </si>
+  <si>
+    <t>24HC01713-1S_61</t>
+  </si>
+  <si>
+    <t>24HC01713-1S_62</t>
+  </si>
+  <si>
+    <t>24HC01713-1S_63</t>
+  </si>
+  <si>
+    <t>24HC01713-1S_64</t>
+  </si>
+  <si>
+    <t>24HC01713-1S_65</t>
+  </si>
+  <si>
+    <t>24HC01713-1S_66</t>
+  </si>
+  <si>
+    <t>24HC01713-1S_67</t>
+  </si>
+  <si>
+    <t>24HC01713-1S_68</t>
+  </si>
+  <si>
+    <t>24HC01713-1S_69</t>
+  </si>
+  <si>
+    <t>24HC01713-1S_70</t>
+  </si>
+  <si>
+    <t>24HC01713-1S_71</t>
+  </si>
+  <si>
+    <t>24HC01713-1S_72</t>
+  </si>
+  <si>
+    <t>24HC01713-1S_73</t>
+  </si>
+  <si>
+    <t>24HC01713-1S_74</t>
+  </si>
+  <si>
+    <t>24HC01713-1S_75</t>
+  </si>
+  <si>
+    <t>24HC01713-1S_76</t>
+  </si>
+  <si>
+    <t>24HC01713-1S_77</t>
+  </si>
+  <si>
+    <t>24HC01713-1S_78</t>
+  </si>
+  <si>
+    <t>24HC01713-1S_79</t>
+  </si>
+  <si>
+    <t>24HC01713-1S_80</t>
+  </si>
+  <si>
+    <t>24HC01713-1S_81</t>
+  </si>
+  <si>
+    <t>24HC01713-1S_82</t>
+  </si>
+  <si>
+    <t>24HC01713-1S_83</t>
+  </si>
+  <si>
+    <t>24HC01713-1S_84</t>
+  </si>
+  <si>
+    <t>24HC01713-1S_85</t>
+  </si>
+  <si>
+    <t>24HC01713-1S_86</t>
+  </si>
+  <si>
+    <t>24HC01713-1S_87</t>
+  </si>
+  <si>
+    <t>24HC01713-1S_88</t>
+  </si>
+  <si>
+    <t>24HC01713-1S_89</t>
+  </si>
+  <si>
+    <t>24HC01713-1S_90</t>
+  </si>
+  <si>
+    <t>24HC01713-1S_91</t>
+  </si>
+  <si>
+    <t>24HC01713-1S_92</t>
+  </si>
+  <si>
+    <t>24HC01713-1S_93</t>
+  </si>
+  <si>
+    <t>24HC01713-1S_94</t>
+  </si>
+  <si>
+    <t>24HC01713-2S_1</t>
+  </si>
+  <si>
+    <t>24HC01713-2S_2</t>
+  </si>
+  <si>
+    <t>24HC01713-2S_3</t>
+  </si>
+  <si>
+    <t>24HC01713-2S_4</t>
+  </si>
+  <si>
+    <t>24HC01713-2S_5</t>
+  </si>
+  <si>
+    <t>24HC01713-2S_6</t>
+  </si>
+  <si>
+    <t>24HC01713-2S_7</t>
+  </si>
+  <si>
+    <t>24HC01713-2S_8</t>
+  </si>
+  <si>
+    <t>24HC01713-2S_9</t>
+  </si>
+  <si>
+    <t>24HC01713-2S_10</t>
+  </si>
+  <si>
+    <t>24HC01713-2S_11</t>
+  </si>
+  <si>
+    <t>24HC01713-2S_12</t>
+  </si>
+  <si>
+    <t>24HC01713-2S_13</t>
+  </si>
+  <si>
+    <t>24HC01713-2S_14</t>
+  </si>
+  <si>
+    <t>24HC01713-2S_15</t>
+  </si>
+  <si>
+    <t>24HC01713-2S_16</t>
+  </si>
+  <si>
+    <t>24HC01713-2S_17</t>
+  </si>
+  <si>
+    <t>24HC01713-2S_18</t>
+  </si>
+  <si>
+    <t>24HC01713-2S_19</t>
+  </si>
+  <si>
+    <t>24HC01713-2S_20</t>
+  </si>
+  <si>
+    <t>24HC01713-2S_21</t>
+  </si>
+  <si>
+    <t>24HC01713-2S_22</t>
+  </si>
+  <si>
+    <t>24HC01713-2S_23</t>
+  </si>
+  <si>
+    <t>24HC01713-2S_24</t>
+  </si>
+  <si>
+    <t>24HC01713-2S_25</t>
+  </si>
+  <si>
+    <t>24HC01713-2S_26</t>
+  </si>
+  <si>
+    <t>24HC01713-2S_27</t>
+  </si>
+  <si>
+    <t>24HC01713-2S_28</t>
+  </si>
+  <si>
+    <t>24HC01713-2S_29</t>
+  </si>
+  <si>
+    <t>24HC01713-2S_30</t>
+  </si>
+  <si>
+    <t>24HC01713-2S_31</t>
+  </si>
+  <si>
+    <t>24HC01713-2S_32</t>
+  </si>
+  <si>
+    <t>24HC01713-2S_33</t>
+  </si>
+  <si>
+    <t>24HC01713-2S_34</t>
+  </si>
+  <si>
+    <t>24HC01713-2S_35</t>
+  </si>
+  <si>
+    <t>24HC01713-2S_36</t>
+  </si>
+  <si>
+    <t>24HC01713-2S_37</t>
+  </si>
+  <si>
+    <t>24HC01713-2S_38</t>
+  </si>
+  <si>
+    <t>24HC01713-2S_39</t>
+  </si>
+  <si>
+    <t>24HC01713-2S_40</t>
+  </si>
+  <si>
+    <t>24HC01713-2S_41</t>
+  </si>
+  <si>
+    <t>24HC01713-2S_42</t>
+  </si>
+  <si>
+    <t>24HC01713-2S_43</t>
+  </si>
+  <si>
+    <t>24HC01713-2S_44</t>
+  </si>
+  <si>
+    <t>24HC01713-2S_45</t>
+  </si>
+  <si>
+    <t>24HC01713-2S_46</t>
+  </si>
+  <si>
+    <t>24HC01713-2S_47</t>
+  </si>
+  <si>
+    <t>24HC01713-2S_48</t>
+  </si>
+  <si>
+    <t>24HC01713-2S_49</t>
+  </si>
+  <si>
+    <t>24HC01713-2S_50</t>
+  </si>
+  <si>
+    <t>24HC01713-2S_51</t>
+  </si>
+  <si>
+    <t>24HC01713-2S_52</t>
+  </si>
+  <si>
+    <t>24HC01713-2S_53</t>
+  </si>
+  <si>
+    <t>24HC01713-2S_54</t>
+  </si>
+  <si>
+    <t>24HC01713-2S_55</t>
+  </si>
+  <si>
+    <t>24HC01713-2S_56</t>
+  </si>
+  <si>
+    <t>24HC01713-2S_57</t>
+  </si>
+  <si>
+    <t>24HC01713-2S_58</t>
+  </si>
+  <si>
+    <t>24HC01713-2S_59</t>
+  </si>
+  <si>
+    <t>24HC01713-2S_60</t>
+  </si>
+  <si>
+    <t>24HC01713-2S_61</t>
+  </si>
+  <si>
+    <t>24HC01713-2S_62</t>
+  </si>
+  <si>
+    <t>24HC01713-2S_63</t>
+  </si>
+  <si>
+    <t>24HC01713-2S_64</t>
+  </si>
+  <si>
+    <t>24HC01713-2S_65</t>
+  </si>
+  <si>
+    <t>24HC01713-2S_66</t>
+  </si>
+  <si>
+    <t>24HC01713-2S_67</t>
+  </si>
+  <si>
+    <t>24HC01713-2S_68</t>
+  </si>
+  <si>
+    <t>24HC01713-2S_69</t>
+  </si>
+  <si>
+    <t>24HC01713-2S_70</t>
+  </si>
+  <si>
+    <t>24HC01713-2S_71</t>
+  </si>
+  <si>
+    <t>24HC01713-2S_72</t>
+  </si>
+  <si>
+    <t>24HC01713-2S_73</t>
+  </si>
+  <si>
+    <t>24HC01713-2S_74</t>
+  </si>
+  <si>
+    <t>24HC01713-2S_75</t>
+  </si>
+  <si>
+    <t>24HC01713-2S_76</t>
+  </si>
+  <si>
+    <t>24HC01713-2S_77</t>
+  </si>
+  <si>
+    <t>24HC01713-2S_78</t>
+  </si>
+  <si>
+    <t>24HC01713-2S_79</t>
+  </si>
+  <si>
+    <t>24HC01713-2S_80</t>
+  </si>
+  <si>
+    <t>24HC01713-2S_81</t>
+  </si>
+  <si>
+    <t>24HC01713-2S_82</t>
+  </si>
+  <si>
+    <t>24HC01713-2S_83</t>
+  </si>
+  <si>
+    <t>24HC01713-2S_84</t>
+  </si>
+  <si>
+    <t>24HC01713-2S_85</t>
+  </si>
+  <si>
+    <t>24HC01713-2S_86</t>
+  </si>
+  <si>
+    <t>24HC01713-2S_87</t>
+  </si>
+  <si>
+    <t>24HC01713-2S_88</t>
+  </si>
+  <si>
+    <t>24HC01713-2S_89</t>
+  </si>
+  <si>
+    <t>24HC01713-2S_90</t>
+  </si>
+  <si>
+    <t>24HC01713-2S_91</t>
+  </si>
+  <si>
+    <t>24HC01713-2S_92</t>
+  </si>
+  <si>
+    <t>24HC01713-2S_93</t>
+  </si>
+  <si>
+    <t>24HC01713-2S_94</t>
+  </si>
+  <si>
+    <t>24HC01713-2S_95</t>
+  </si>
+  <si>
+    <t>24HC01713-2S_96</t>
+  </si>
+  <si>
+    <t>24HC01713-3S_1</t>
+  </si>
+  <si>
+    <t>24HC01713-3S_2</t>
+  </si>
+  <si>
+    <t>24HC01713-3S_3</t>
+  </si>
+  <si>
+    <t>24HC01713-3S_4</t>
+  </si>
+  <si>
+    <t>24HC01713-3S_5</t>
+  </si>
+  <si>
+    <t>24HC01713-3S_6</t>
+  </si>
+  <si>
+    <t>24HC01713-3S_7</t>
+  </si>
+  <si>
+    <t>24HC01713-3S_8</t>
+  </si>
+  <si>
+    <t>24HC01713-3S_9</t>
+  </si>
+  <si>
+    <t>24HC01713-3S_10</t>
+  </si>
+  <si>
+    <t>24HC01713-3S_11</t>
+  </si>
+  <si>
+    <t>24HC01713-3S_12</t>
+  </si>
+  <si>
+    <t>24HC01713-3S_13</t>
+  </si>
+  <si>
+    <t>24HC01713-3S_14</t>
+  </si>
+  <si>
+    <t>24HC01713-3S_15</t>
+  </si>
+  <si>
+    <t>24HC01713-3S_16</t>
+  </si>
+  <si>
+    <t>24HC01713-3S_17</t>
+  </si>
+  <si>
+    <t>24HC01713-3S_18</t>
+  </si>
+  <si>
+    <t>24HC01713-3S_19</t>
+  </si>
+  <si>
+    <t>24HC01713-3S_20</t>
+  </si>
+  <si>
+    <t>24HC01713-3S_21</t>
+  </si>
+  <si>
+    <t>24HC01713-3S_22</t>
+  </si>
+  <si>
+    <t>24HC01713-3S_23</t>
+  </si>
+  <si>
+    <t>24HC01713-3S_24</t>
+  </si>
+  <si>
+    <t>24HC01713-3S_25</t>
+  </si>
+  <si>
+    <t>24HC01713-3S_26</t>
+  </si>
+  <si>
+    <t>24HC01713-3S_27</t>
+  </si>
+  <si>
+    <t>24HC01713-3S_28</t>
+  </si>
+  <si>
+    <t>24HC01713-3S_29</t>
+  </si>
+  <si>
+    <t>24HC01713-3S_30</t>
+  </si>
+  <si>
+    <t>24HC01713-3S_31</t>
+  </si>
+  <si>
+    <t>24HC01713-3S_32</t>
+  </si>
+  <si>
+    <t>24HC01713-3S_33</t>
+  </si>
+  <si>
+    <t>24HC01713-3S_34</t>
+  </si>
+  <si>
+    <t>24HC01713-3S_35</t>
+  </si>
+  <si>
+    <t>24HC01713-3S_36</t>
+  </si>
+  <si>
+    <t>24HC01713-3S_37</t>
+  </si>
+  <si>
+    <t>24HC01713-3S_38</t>
+  </si>
+  <si>
+    <t>24HC01713-3S_39</t>
+  </si>
+  <si>
+    <t>24HC01713-3S_40</t>
+  </si>
+  <si>
+    <t>24HC01713-3S_41</t>
+  </si>
+  <si>
+    <t>24HC01713-3S_42</t>
+  </si>
+  <si>
+    <t>24HC01713-3S_43</t>
+  </si>
+  <si>
+    <t>24HC01713-3S_44</t>
+  </si>
+  <si>
+    <t>24HC01713-3S_45</t>
+  </si>
+  <si>
+    <t>24HC01713-3S_46</t>
+  </si>
+  <si>
+    <t>24HC01713-3S_47</t>
+  </si>
+  <si>
+    <t>24HC01713-3S_48</t>
+  </si>
+  <si>
+    <t>24HC01713-3S_49</t>
+  </si>
+  <si>
+    <t>24HC01713-3S_50</t>
+  </si>
+  <si>
+    <t>24HC01713-3S_51</t>
+  </si>
+  <si>
+    <t>24HC01713-3S_52</t>
+  </si>
+  <si>
+    <t>24HC01713-3S_53</t>
+  </si>
+  <si>
+    <t>24HC01713-3S_54</t>
+  </si>
+  <si>
+    <t>24HC01713-3S_55</t>
+  </si>
+  <si>
+    <t>24HC01713-3S_56</t>
+  </si>
+  <si>
+    <t>24HC01713-3S_57</t>
+  </si>
+  <si>
+    <t>24HC01713-3S_58</t>
+  </si>
+  <si>
+    <t>24HC01713-3S_59</t>
+  </si>
+  <si>
+    <t>24HC01713-3S_60</t>
+  </si>
+  <si>
+    <t>24HC01713-3S_61</t>
+  </si>
+  <si>
+    <t>24HC01713-3S_62</t>
+  </si>
+  <si>
+    <t>24HC01713-3S_63</t>
+  </si>
+  <si>
+    <t>24HC01713-3S_64</t>
+  </si>
+  <si>
+    <t>24HC01713-3S_65</t>
+  </si>
+  <si>
+    <t>24HC01713-3S_66</t>
+  </si>
+  <si>
+    <t>24HC01713-3S_67</t>
+  </si>
+  <si>
+    <t>24HC01713-3S_68</t>
+  </si>
+  <si>
+    <t>24HC01713-3S_69</t>
+  </si>
+  <si>
+    <t>24HC01713-3S_70</t>
+  </si>
+  <si>
+    <t>24HC01713-3S_71</t>
+  </si>
+  <si>
+    <t>24HC01713-3S_72</t>
+  </si>
+  <si>
+    <t>24HC01713-3S_73</t>
+  </si>
+  <si>
+    <t>24HC01713-3S_74</t>
+  </si>
+  <si>
+    <t>24HC01713-3S_75</t>
+  </si>
+  <si>
+    <t>24HC01713-3S_76</t>
+  </si>
+  <si>
+    <t>24HC01713-3S_77</t>
+  </si>
+  <si>
+    <t>24HC01713-3S_78</t>
+  </si>
+  <si>
+    <t>24HC01713-3S_79</t>
+  </si>
+  <si>
+    <t>24HC01713-3S_80</t>
+  </si>
+  <si>
+    <t>24HC01713-3S_81</t>
+  </si>
+  <si>
+    <t>24HC01713-3S_82</t>
+  </si>
+  <si>
+    <t>24HC01713-3S_83</t>
+  </si>
+  <si>
+    <t>24HC01713-3S_84</t>
+  </si>
+  <si>
+    <t>24HC01713-4S_1</t>
+  </si>
+  <si>
+    <t>24HC01713-4S_2</t>
+  </si>
+  <si>
+    <t>24HC01713-4S_3</t>
+  </si>
+  <si>
+    <t>24HC01713-4S_4</t>
+  </si>
+  <si>
+    <t>24HC01713-4S_5</t>
+  </si>
+  <si>
+    <t>24HC01713-4S_6</t>
+  </si>
+  <si>
+    <t>24HC01713-4S_7</t>
+  </si>
+  <si>
+    <t>24HC01713-4S_8</t>
+  </si>
+  <si>
+    <t>24HC01713-4S_9</t>
+  </si>
+  <si>
+    <t>24HC01713-4S_10</t>
+  </si>
+  <si>
+    <t>24HC01713-4S_11</t>
+  </si>
+  <si>
+    <t>24HC01713-4S_12</t>
+  </si>
+  <si>
+    <t>24HC01713-4S_13</t>
+  </si>
+  <si>
+    <t>24HC01713-4S_14</t>
+  </si>
+  <si>
+    <t>24HC01713-4S_15</t>
+  </si>
+  <si>
+    <t>24HC01713-4S_16</t>
+  </si>
+  <si>
+    <t>24HC01713-4S_17</t>
+  </si>
+  <si>
+    <t>24HC01713-4S_18</t>
+  </si>
+  <si>
+    <t>24HC01713-4S_19</t>
+  </si>
+  <si>
+    <t>24HC01713-4S_20</t>
+  </si>
+  <si>
+    <t>24HC01713-4S_21</t>
+  </si>
+  <si>
+    <t>24HC01713-4S_22</t>
+  </si>
+  <si>
+    <t>24HC01713-4S_23</t>
+  </si>
+  <si>
+    <t>24HC01713-4S_24</t>
+  </si>
+  <si>
+    <t>24HC01713-4S_25</t>
+  </si>
+  <si>
+    <t>24HC01713-4S_26</t>
+  </si>
+  <si>
+    <t>24HC01713-4S_27</t>
+  </si>
+  <si>
+    <t>24HC01713-4S_28</t>
+  </si>
+  <si>
+    <t>24HC01713-4S_29</t>
+  </si>
+  <si>
+    <t>24HC01713-4S_30</t>
+  </si>
+  <si>
+    <t>24HC01713-4S_31</t>
+  </si>
+  <si>
+    <t>24HC01713-4S_32</t>
+  </si>
+  <si>
+    <t>24HC01713-4S_33</t>
+  </si>
+  <si>
+    <t>24HC01713-4S_34</t>
+  </si>
+  <si>
+    <t>24HC01713-4S_35</t>
+  </si>
+  <si>
+    <t>24HC01713-4S_36</t>
+  </si>
+  <si>
+    <t>24HC01713-4S_37</t>
+  </si>
+  <si>
+    <t>24HC01713-4S_38</t>
+  </si>
+  <si>
+    <t>24HC01713-4S_39</t>
+  </si>
+  <si>
+    <t>24HC01713-4S_40</t>
+  </si>
+  <si>
+    <t>24HC01713-4S_41</t>
+  </si>
+  <si>
+    <t>24HC01713-4S_42</t>
+  </si>
+  <si>
+    <t>24HC01713-4S_43</t>
+  </si>
+  <si>
+    <t>24HC01713-4S_44</t>
+  </si>
+  <si>
+    <t>24HC01713-4S_45</t>
+  </si>
+  <si>
+    <t>24HC01713-4S_46</t>
+  </si>
+  <si>
+    <t>24HC01713-4S_47</t>
+  </si>
+  <si>
+    <t>24HC01713-4S_48</t>
+  </si>
+  <si>
+    <t>24HC01713-4S_49</t>
+  </si>
+  <si>
+    <t>24HC01713-4S_50</t>
+  </si>
+  <si>
+    <t>24HC01713-4S_51</t>
+  </si>
+  <si>
+    <t>24HC01713-4S_52</t>
+  </si>
+  <si>
+    <t>24HC01713-4S_53</t>
+  </si>
+  <si>
+    <t>24HC01713-4S_54</t>
+  </si>
+  <si>
+    <t>24HC01713-4S_55</t>
+  </si>
+  <si>
+    <t>24HC01713-4S_56</t>
+  </si>
+  <si>
+    <t>24HC01713-4S_57</t>
+  </si>
+  <si>
+    <t>24HC01713-4S_58</t>
+  </si>
+  <si>
+    <t>24HC01713-4S_59</t>
+  </si>
+  <si>
+    <t>24HC01713-4S_60</t>
+  </si>
+  <si>
+    <t>24HC01713-4S_61</t>
+  </si>
+  <si>
+    <t>24HC01713-4S_62</t>
+  </si>
+  <si>
+    <t>24HC01713-4S_63</t>
+  </si>
+  <si>
+    <t>24HC01713-4S_64</t>
+  </si>
+  <si>
+    <t>24HC01713-4S_65</t>
+  </si>
+  <si>
+    <t>24HC01713-4S_66</t>
+  </si>
+  <si>
+    <t>24HC01713-4S_67</t>
+  </si>
+  <si>
+    <t>24HC01713-4S_68</t>
+  </si>
+  <si>
+    <t>24HC01713-4S_69</t>
+  </si>
+  <si>
+    <t>24HC01713-4S_70</t>
+  </si>
+  <si>
+    <t>24HC01713-4S_71</t>
+  </si>
+  <si>
+    <t>24HC01713-4S_72</t>
+  </si>
+  <si>
+    <t>24HC01713-4S_73</t>
+  </si>
+  <si>
+    <t>24HC01713-4S_74</t>
+  </si>
+  <si>
+    <t>24HC01713-4S_75</t>
+  </si>
+  <si>
+    <t>24HC01713-4S_76</t>
+  </si>
+  <si>
+    <t>24HC01713-4S_77</t>
+  </si>
+  <si>
+    <t>24HC01713-4S_78</t>
+  </si>
+  <si>
+    <t>24HC01713-4S_79</t>
+  </si>
+  <si>
+    <t>24HC01713-4S_80</t>
+  </si>
+  <si>
+    <t>24HC01713-4S_81</t>
+  </si>
+  <si>
+    <t>24HC01713-4S_82</t>
+  </si>
+  <si>
+    <t>24HC01713-4S_83</t>
+  </si>
+  <si>
+    <t>24HC01713-4S_84</t>
+  </si>
+  <si>
+    <t>24HC01713-5D_1</t>
+  </si>
+  <si>
+    <t>24HC01713-5D_2</t>
+  </si>
+  <si>
+    <t>24HC01713-5D_3</t>
+  </si>
+  <si>
+    <t>24HC01713-5D_4</t>
+  </si>
+  <si>
+    <t>24HC01713-5D_5</t>
+  </si>
+  <si>
+    <t>24HC01713-5D_6</t>
+  </si>
+  <si>
+    <t>24HC01713-5D_7</t>
+  </si>
+  <si>
+    <t>24HC01713-5D_8</t>
+  </si>
+  <si>
+    <t>24HC01713-5D_9</t>
+  </si>
+  <si>
+    <t>24HC01713-5D_10</t>
+  </si>
+  <si>
+    <t>24HC01713-5D_11</t>
+  </si>
+  <si>
+    <t>24HC01713-5D_12</t>
+  </si>
+  <si>
+    <t>24HC01713-5D_13</t>
+  </si>
+  <si>
+    <t>24HC01713-5D_14</t>
+  </si>
+  <si>
+    <t>24HC01713-5D_15</t>
+  </si>
+  <si>
+    <t>24HC01713-5D_16</t>
+  </si>
+  <si>
+    <t>24HC01713-5D_17</t>
+  </si>
+  <si>
+    <t>24HC01713-5D_18</t>
+  </si>
+  <si>
+    <t>24HC01713-5D_19</t>
+  </si>
+  <si>
+    <t>24HC01713-5D_20</t>
+  </si>
+  <si>
+    <t>24HC01713-5D_21</t>
+  </si>
+  <si>
+    <t>24HC01713-5D_22</t>
+  </si>
+  <si>
+    <t>24HC01713-5D_23</t>
+  </si>
+  <si>
+    <t>24HC01713-5D_24</t>
+  </si>
+  <si>
+    <t>24HC01713-5D_25</t>
+  </si>
+  <si>
+    <t>24HC01713-5D_26</t>
+  </si>
+  <si>
+    <t>24HC01713-5D_27</t>
+  </si>
+  <si>
+    <t>24HC01713-5D_28</t>
+  </si>
+  <si>
+    <t>24HC01713-5D_29</t>
+  </si>
+  <si>
+    <t>24HC01713-5D_30</t>
+  </si>
+  <si>
+    <t>24HC01713-5D_31</t>
+  </si>
+  <si>
+    <t>24HC01713-5D_32</t>
+  </si>
+  <si>
+    <t>24HC01713-5D_33</t>
+  </si>
+  <si>
+    <t>24HC01713-5D_34</t>
+  </si>
+  <si>
+    <t>24HC01713-5D_35</t>
+  </si>
+  <si>
+    <t>24HC01713-5D_36</t>
+  </si>
+  <si>
+    <t>24HC01713-5D_37</t>
+  </si>
+  <si>
+    <t>24HC01713-5D_38</t>
+  </si>
+  <si>
+    <t>24HC01713-5D_39</t>
+  </si>
+  <si>
+    <t>24HC01713-5D_40</t>
+  </si>
+  <si>
+    <t>24HC01713-5D_41</t>
+  </si>
+  <si>
+    <t>24HC01713-5D_42</t>
+  </si>
+  <si>
+    <t>24HC01713-5D_43</t>
+  </si>
+  <si>
+    <t>24HC01713-5D_44</t>
+  </si>
+  <si>
+    <t>24HC01713-5D_45</t>
+  </si>
+  <si>
+    <t>24HC01713-5D_46</t>
+  </si>
+  <si>
+    <t>24HC01713-5D_47</t>
+  </si>
+  <si>
+    <t>24HC01713-5D_48</t>
+  </si>
+  <si>
+    <t>24HC01713-5D_49</t>
+  </si>
+  <si>
+    <t>24HC01713-5D_50</t>
+  </si>
+  <si>
+    <t>24HC01713-5D_51</t>
+  </si>
+  <si>
+    <t>24HC01713-5D_52</t>
+  </si>
+  <si>
+    <t>24HC01713-6D_1</t>
+  </si>
+  <si>
+    <t>24HC01713-6D_2</t>
+  </si>
+  <si>
+    <t>24HC01713-6D_3</t>
+  </si>
+  <si>
+    <t>24HC01713-6D_4</t>
+  </si>
+  <si>
+    <t>24HC01713-6D_5</t>
+  </si>
+  <si>
+    <t>24HC01713-6D_6</t>
+  </si>
+  <si>
+    <t>24HC01713-6D_7</t>
+  </si>
+  <si>
+    <t>24HC01713-6D_8</t>
+  </si>
+  <si>
+    <t>24HC01713-6D_9</t>
+  </si>
+  <si>
+    <t>24HC01713-6D_10</t>
+  </si>
+  <si>
+    <t>24HC01713-6D_11</t>
+  </si>
+  <si>
+    <t>24HC01713-6D_12</t>
+  </si>
+  <si>
+    <t>24HC01713-6D_13</t>
+  </si>
+  <si>
+    <t>24HC01713-6D_14</t>
+  </si>
+  <si>
+    <t>24HC01713-6D_15</t>
+  </si>
+  <si>
+    <t>24HC01713-6D_16</t>
+  </si>
+  <si>
+    <t>24HC01713-6D_17</t>
+  </si>
+  <si>
+    <t>24HC01713-6D_18</t>
+  </si>
+  <si>
+    <t>24HC01713-6D_19</t>
+  </si>
+  <si>
+    <t>24HC01713-6D_20</t>
+  </si>
+  <si>
+    <t>24HC01713-6D_21</t>
+  </si>
+  <si>
+    <t>24HC01713-6D_22</t>
+  </si>
+  <si>
+    <t>24HC01713-6D_23</t>
+  </si>
+  <si>
+    <t>24HC01713-6D_24</t>
+  </si>
+  <si>
+    <t>24HC01713-6D_25</t>
+  </si>
+  <si>
+    <t>24HC01713-6D_26</t>
+  </si>
+  <si>
+    <t>24HC01713-6D_27</t>
+  </si>
+  <si>
+    <t>24HC01713-6D_28</t>
+  </si>
+  <si>
+    <t>24HC01713-6D_29</t>
+  </si>
+  <si>
+    <t>24HC01713-6D_30</t>
+  </si>
+  <si>
+    <t>24HC01713-6D_31</t>
+  </si>
+  <si>
+    <t>24HC01713-6D_32</t>
+  </si>
+  <si>
+    <t>24HC01713-6D_33</t>
+  </si>
+  <si>
+    <t>24HC01713-6D_34</t>
+  </si>
+  <si>
+    <t>24HC01713-6D_35</t>
+  </si>
+  <si>
+    <t>24HC01713-6D_36</t>
+  </si>
+  <si>
+    <t>24HC01713-6D_37</t>
+  </si>
+  <si>
+    <t>24HC01713-7D_1</t>
+  </si>
+  <si>
+    <t>24HC01713-7D_2</t>
+  </si>
+  <si>
+    <t>24HC01713-7D_3</t>
+  </si>
+  <si>
+    <t>24HC01713-7D_4</t>
+  </si>
+  <si>
+    <t>24HC01713-7D_5</t>
+  </si>
+  <si>
+    <t>24HC01713-7D_6</t>
+  </si>
+  <si>
+    <t>24HC01713-7D_7</t>
+  </si>
+  <si>
+    <t>24HC01713-7D_8</t>
+  </si>
+  <si>
+    <t>24HC01713-7D_9</t>
+  </si>
+  <si>
+    <t>24HC01713-7D_10</t>
+  </si>
+  <si>
+    <t>24HC01713-7D_11</t>
+  </si>
+  <si>
+    <t>24HC01713-7D_12</t>
+  </si>
+  <si>
+    <t>24HC01713-7D_13</t>
+  </si>
+  <si>
+    <t>24HC01713-7D_14</t>
+  </si>
+  <si>
+    <t>24HC01713-7D_15</t>
+  </si>
+  <si>
+    <t>24HC01713-7D_16</t>
+  </si>
+  <si>
+    <t>24HC01713-7D_17</t>
+  </si>
+  <si>
+    <t>24HC01713-7D_18</t>
+  </si>
+  <si>
+    <t>24HC01713-7D_19</t>
+  </si>
+  <si>
+    <t>24HC01713-7D_20</t>
+  </si>
+  <si>
+    <t>24HC01713-7D_21</t>
+  </si>
+  <si>
+    <t>24HC01713-7D_22</t>
+  </si>
+  <si>
+    <t>24HC01713-7D_23</t>
+  </si>
+  <si>
+    <t>24HC01713-7D_24</t>
+  </si>
+  <si>
+    <t>24HC01713-7D_25</t>
+  </si>
+  <si>
+    <t>24HC01713-7D_26</t>
+  </si>
+  <si>
+    <t>24HC01713-7D_27</t>
+  </si>
+  <si>
+    <t>24HC01713-7D_28</t>
+  </si>
+  <si>
+    <t>24HC01713-7D_29</t>
+  </si>
+  <si>
+    <t>24HC01713-7D_30</t>
+  </si>
+  <si>
+    <t>24HC01713-7D_31</t>
+  </si>
+  <si>
+    <t>24HC01713-7D_32</t>
+  </si>
+  <si>
+    <t>24HC01713-7D_33</t>
+  </si>
+  <si>
+    <t>24HC01713-7D_34</t>
+  </si>
+  <si>
+    <t>24HC01713-8D_1</t>
+  </si>
+  <si>
+    <t>24HC01713-8D_2</t>
+  </si>
+  <si>
+    <t>24HC01713-8D_3</t>
+  </si>
+  <si>
+    <t>24HC01713-8D_4</t>
+  </si>
+  <si>
+    <t>24HC01713-8D_5</t>
+  </si>
+  <si>
+    <t>24HC01713-8D_6</t>
+  </si>
+  <si>
+    <t>24HC01713-8D_7</t>
+  </si>
+  <si>
+    <t>24HC01713-8D_8</t>
+  </si>
+  <si>
+    <t>24HC01713-8D_9</t>
+  </si>
+  <si>
+    <t>24HC01713-8D_10</t>
+  </si>
+  <si>
+    <t>24HC01713-8D_11</t>
+  </si>
+  <si>
+    <t>24HC01713-8D_12</t>
+  </si>
+  <si>
+    <t>24HC01713-8D_13</t>
+  </si>
+  <si>
+    <t>24HC01713-8D_14</t>
+  </si>
+  <si>
+    <t>24HC01713-8D_15</t>
+  </si>
+  <si>
+    <t>24HC01713-8D_16</t>
+  </si>
+  <si>
+    <t>24HC01713-8D_17</t>
+  </si>
+  <si>
+    <t>24HC01713-8D_18</t>
+  </si>
+  <si>
+    <t>24HC01713-8D_19</t>
+  </si>
+  <si>
+    <t>24HC01713-8D_20</t>
+  </si>
+  <si>
+    <t>24HC01713-8D_21</t>
+  </si>
+  <si>
+    <t>24HC01713-8D_22</t>
+  </si>
+  <si>
+    <t>24HC01713-8D_23</t>
+  </si>
+  <si>
+    <t>24HC01713-8D_24</t>
+  </si>
+  <si>
+    <t>24HC01713-8D_25</t>
+  </si>
+  <si>
+    <t>24HC01713-8D_26</t>
+  </si>
+  <si>
+    <t>24HC01713-8D_27</t>
+  </si>
+  <si>
+    <t>24HC01713-8D_28</t>
+  </si>
+  <si>
+    <t>24HC01713-8D_29</t>
+  </si>
+  <si>
+    <t>24HC01713-8D_30</t>
+  </si>
+  <si>
+    <t>24HC01713-8D_31</t>
+  </si>
+  <si>
+    <t>24HC01713-8D_32</t>
+  </si>
+  <si>
+    <t>24HC01713-8D_33</t>
+  </si>
+  <si>
+    <t>24HC01713-8D_34</t>
+  </si>
+  <si>
+    <t>24HC01713-9D_1</t>
+  </si>
+  <si>
+    <t>24HC01713-9D_2</t>
+  </si>
+  <si>
+    <t>24HC01713-9D_3</t>
+  </si>
+  <si>
+    <t>24HC01713-9D_4</t>
+  </si>
+  <si>
+    <t>24HC01713-9D_5</t>
+  </si>
+  <si>
+    <t>24HC01713-9D_6</t>
+  </si>
+  <si>
+    <t>24HC01713-9D_7</t>
+  </si>
+  <si>
+    <t>24HC01713-9D_8</t>
+  </si>
+  <si>
+    <t>24HC01713-9D_9</t>
+  </si>
+  <si>
+    <t>24HC01713-9D_10</t>
+  </si>
+  <si>
+    <t>24HC01713-9D_11</t>
+  </si>
+  <si>
+    <t>24HC01713-9D_12</t>
+  </si>
+  <si>
+    <t>24HC01713-9D_13</t>
+  </si>
+  <si>
+    <t>24HC01713-9D_14</t>
+  </si>
+  <si>
+    <t>24HC01713-9D_15</t>
+  </si>
+  <si>
+    <t>24HC01713-9D_16</t>
+  </si>
+  <si>
+    <t>24HC01713-9D_17</t>
+  </si>
+  <si>
+    <t>24HC01713-9D_18</t>
+  </si>
+  <si>
+    <t>24HC01713-9D_19</t>
+  </si>
+  <si>
+    <t>24HC01713-9D_20</t>
+  </si>
+  <si>
+    <t>24HC01713-9D_21</t>
+  </si>
+  <si>
+    <t>24HC01713-9D_22</t>
+  </si>
+  <si>
+    <t>24HC01713-9D_23</t>
+  </si>
+  <si>
+    <t>24HC01713-9D_24</t>
+  </si>
+  <si>
+    <t>24HC01713-9D_25</t>
+  </si>
+  <si>
+    <t>24HC01713-9D_26</t>
+  </si>
+  <si>
+    <t>24HC01713-9D_27</t>
+  </si>
+  <si>
+    <t>24HC01713-9D_28</t>
+  </si>
+  <si>
+    <t>24HC01713-9D_29</t>
+  </si>
+  <si>
+    <t>24HC01713-9D_30</t>
+  </si>
+  <si>
+    <t>24HC01713-9D_31</t>
+  </si>
+  <si>
+    <t>24HC01713-9D_32</t>
+  </si>
+  <si>
+    <t>24HC01713-9D_33</t>
+  </si>
+  <si>
+    <t>24HC01713-9D_34</t>
+  </si>
+  <si>
+    <t>24HC01713-9D_35</t>
+  </si>
+  <si>
+    <t>24HC01713-9D_36</t>
+  </si>
+  <si>
+    <t>24HC01713-9D_37</t>
+  </si>
+  <si>
+    <t>24HC01713-9D_38</t>
+  </si>
+  <si>
+    <t>24HC01713-9D_39</t>
+  </si>
+  <si>
+    <t>24HC01713-9D_40</t>
+  </si>
+  <si>
+    <t>24HC01713-9D_41</t>
+  </si>
+  <si>
+    <t>24HC01713-9D_42</t>
+  </si>
+  <si>
+    <t>24HC01713-9D_43</t>
+  </si>
+  <si>
+    <t>24HC01713-9D_44</t>
+  </si>
+  <si>
+    <t>24HC01713-9D_45</t>
+  </si>
+  <si>
+    <t>24HC01713-9D_46</t>
+  </si>
+  <si>
+    <t>24HC01713-9D_47</t>
+  </si>
+  <si>
+    <t>24HC01713-9D_48</t>
+  </si>
+  <si>
+    <t>24HC01713-9D_49</t>
+  </si>
+  <si>
+    <t>24HC01713-9D_50</t>
+  </si>
+  <si>
+    <t>24HC01713-9D_51</t>
+  </si>
+  <si>
+    <t>24HC01713-9D_52</t>
+  </si>
+  <si>
+    <t>24HC01713-9D_53</t>
+  </si>
+  <si>
+    <t>24HC01713-9D_54</t>
+  </si>
+  <si>
+    <t>24HC01713-9D_55</t>
+  </si>
+  <si>
+    <t>24HC01713-9D_56</t>
+  </si>
+  <si>
+    <t>24HC01713-9D_57</t>
+  </si>
+  <si>
+    <t>24HC01713-9D_58</t>
+  </si>
+  <si>
+    <t>24HC01713-9D_59</t>
+  </si>
+  <si>
+    <t>24HC01713-9D_60</t>
+  </si>
+  <si>
+    <t>24HC01713-9D_61</t>
+  </si>
+  <si>
+    <t>24HC01713-9D_62</t>
+  </si>
+  <si>
+    <t>24HC01713-9D_63</t>
+  </si>
+  <si>
+    <t>24HC01713-9D_64</t>
+  </si>
+  <si>
+    <t>24HC01713-9D_65</t>
+  </si>
+  <si>
+    <t>24HC01713-9D_66</t>
+  </si>
+  <si>
+    <t>24HC01713-9D_67</t>
+  </si>
+  <si>
+    <t>24HC01713-9D_68</t>
+  </si>
+  <si>
+    <t>24HC01713-9D_69</t>
+  </si>
+  <si>
+    <t>24HC01713-10D_1</t>
+  </si>
+  <si>
+    <t>24HC01713-10D_2</t>
+  </si>
+  <si>
+    <t>24HC01713-10D_3</t>
+  </si>
+  <si>
+    <t>24HC01713-10D_4</t>
+  </si>
+  <si>
+    <t>24HC01713-10D_5</t>
+  </si>
+  <si>
+    <t>24HC01713-10D_6</t>
+  </si>
+  <si>
+    <t>24HC01713-10D_7</t>
+  </si>
+  <si>
+    <t>24HC01713-10D_8</t>
+  </si>
+  <si>
+    <t>24HC01713-10D_9</t>
+  </si>
+  <si>
+    <t>24HC01713-10D_10</t>
+  </si>
+  <si>
+    <t>24HC01713-10D_11</t>
+  </si>
+  <si>
+    <t>24HC01713-10D_12</t>
+  </si>
+  <si>
+    <t>24HC01713-10D_13</t>
+  </si>
+  <si>
+    <t>24HC01713-10D_14</t>
+  </si>
+  <si>
+    <t>24HC01713-10D_15</t>
+  </si>
+  <si>
+    <t>24HC01713-10D_16</t>
+  </si>
+  <si>
+    <t>24HC01713-10D_17</t>
+  </si>
+  <si>
+    <t>24HC01713-10D_18</t>
+  </si>
+  <si>
+    <t>24HC01713-10D_19</t>
+  </si>
+  <si>
+    <t>24HC01713-10D_20</t>
+  </si>
+  <si>
+    <t>24HC01713-10D_21</t>
+  </si>
+  <si>
+    <t>24HC01713-10D_22</t>
+  </si>
+  <si>
+    <t>24HC01713-10D_23</t>
+  </si>
+  <si>
+    <t>24HC01713-10D_24</t>
+  </si>
+  <si>
+    <t>24HC01713-10D_25</t>
+  </si>
+  <si>
+    <t>24HC01713-10D_26</t>
+  </si>
+  <si>
+    <t>24HC01713-10D_27</t>
+  </si>
+  <si>
+    <t>24HC01713-10D_28</t>
+  </si>
+  <si>
+    <t>24HC01713-10D_29</t>
+  </si>
+  <si>
+    <t>24HC01713-10D_30</t>
+  </si>
+  <si>
+    <t>24HC01713-10D_31</t>
+  </si>
+  <si>
+    <t>24HC01713-10D_32</t>
+  </si>
+  <si>
+    <t>24HC01713-10D_33</t>
+  </si>
+  <si>
+    <t>24HC01713-10D_34</t>
+  </si>
+  <si>
+    <t>24HC01713-10D_35</t>
+  </si>
+  <si>
+    <t>24HC01713-10D_36</t>
+  </si>
+  <si>
+    <t>24HC01713-10D_37</t>
+  </si>
+  <si>
+    <t>24HC01713-10D_38</t>
+  </si>
+  <si>
+    <t>24HC01713-10D_39</t>
+  </si>
+  <si>
+    <t>24HC01713-10D_40</t>
+  </si>
+  <si>
+    <t>24HC01713-10D_41</t>
+  </si>
+  <si>
+    <t>24HC01713-10D_42</t>
+  </si>
+  <si>
+    <t>24HC01713-10D_43</t>
+  </si>
+  <si>
+    <t>24HC01713-10D_44</t>
+  </si>
+  <si>
+    <t>24HC01713-10D_45</t>
+  </si>
+  <si>
+    <t>24HC01713-10D_46</t>
+  </si>
+  <si>
+    <t>24HC01713-10D_47</t>
+  </si>
+  <si>
+    <t>24HC01713-10D_48</t>
+  </si>
+  <si>
+    <t>24HC01713-10D_49</t>
+  </si>
+  <si>
+    <t>24HC01713-10D_50</t>
+  </si>
+  <si>
+    <t>24HC01713-10D_51</t>
+  </si>
+  <si>
+    <t>24HC01713-10D_52</t>
+  </si>
+  <si>
+    <t>24HC01713-10D_53</t>
+  </si>
+  <si>
+    <t>24HC01713-10D_54</t>
+  </si>
+  <si>
+    <t>24HC01713-10D_55</t>
+  </si>
+  <si>
+    <t>24HC01713-10D_56</t>
+  </si>
+  <si>
+    <t>24HC01713-10D_57</t>
+  </si>
+  <si>
+    <t>24HC01713-10D_58</t>
+  </si>
+  <si>
+    <t>24HC01713-10D_59</t>
+  </si>
+  <si>
+    <t>24HC01713-10D_60</t>
+  </si>
+  <si>
+    <t>24HC01713-10D_61</t>
+  </si>
+  <si>
+    <t>24HC01713-10D_62</t>
+  </si>
+  <si>
+    <t>24HC01713-10D_63</t>
+  </si>
+  <si>
+    <t>24HC01713-10D_64</t>
+  </si>
+  <si>
+    <t>24HC01713-10D_65</t>
+  </si>
+  <si>
+    <t>24HC01713-10D_66</t>
+  </si>
+  <si>
+    <t>24HC01713-10D_67</t>
+  </si>
+  <si>
+    <t>24HC01713-11D_1</t>
+  </si>
+  <si>
+    <t>24HC01713-11D_2</t>
+  </si>
+  <si>
+    <t>24HC01713-11D_3</t>
+  </si>
+  <si>
+    <t>24HC01713-11D_4</t>
+  </si>
+  <si>
+    <t>24HC01713-11D_5</t>
+  </si>
+  <si>
+    <t>24HC01713-11D_6</t>
+  </si>
+  <si>
+    <t>24HC01713-11D_7</t>
+  </si>
+  <si>
+    <t>24HC01713-11D_8</t>
+  </si>
+  <si>
+    <t>24HC01713-11D_9</t>
+  </si>
+  <si>
+    <t>24HC01713-11D_10</t>
+  </si>
+  <si>
+    <t>24HC01713-11D_11</t>
+  </si>
+  <si>
+    <t>24HC01713-11D_12</t>
+  </si>
+  <si>
+    <t>24HC01713-11D_13</t>
+  </si>
+  <si>
+    <t>24HC01713-11D_14</t>
+  </si>
+  <si>
+    <t>24HC01713-11D_15</t>
+  </si>
+  <si>
+    <t>24HC01713-11D_16</t>
+  </si>
+  <si>
+    <t>24HC01713-11D_17</t>
+  </si>
+  <si>
+    <t>24HC01713-11D_18</t>
+  </si>
+  <si>
+    <t>24HC01713-11D_19</t>
+  </si>
+  <si>
+    <t>24HC01713-11D_20</t>
+  </si>
+  <si>
+    <t>24HC01713-11D_21</t>
+  </si>
+  <si>
+    <t>24HC01713-11D_22</t>
+  </si>
+  <si>
+    <t>24HC01713-11D_23</t>
+  </si>
+  <si>
+    <t>24HC01713-11D_24</t>
+  </si>
+  <si>
+    <t>24HC01713-11D_25</t>
+  </si>
+  <si>
+    <t>24HC01713-11D_26</t>
+  </si>
+  <si>
+    <t>24HC01713-11D_27</t>
+  </si>
+  <si>
+    <t>24HC01713-11D_28</t>
+  </si>
+  <si>
+    <t>24HC01713-11D_29</t>
+  </si>
+  <si>
+    <t>24HC01713-11D_30</t>
+  </si>
+  <si>
+    <t>24HC01713-11D_31</t>
+  </si>
+  <si>
+    <t>24HC01713-11D_32</t>
+  </si>
+  <si>
+    <t>24HC01713-11D_33</t>
+  </si>
+  <si>
+    <t>24HC01713-11D_34</t>
+  </si>
+  <si>
+    <t>24HC01713-11D_35</t>
+  </si>
+  <si>
+    <t>24HC01713-11D_36</t>
+  </si>
+  <si>
+    <t>24HC01713-11D_37</t>
+  </si>
+  <si>
+    <t>24HC01713-11D_38</t>
+  </si>
+  <si>
+    <t>24HC01713-11D_39</t>
+  </si>
+  <si>
+    <t>24HC01713-11D_40</t>
+  </si>
+  <si>
+    <t>24HC01713-11D_41</t>
+  </si>
+  <si>
+    <t>24HC01713-11D_42</t>
+  </si>
+  <si>
+    <t>24HC01713-11D_43</t>
+  </si>
+  <si>
+    <t>24HC01713-11D_44</t>
+  </si>
+  <si>
+    <t>24HC01713-11D_45</t>
+  </si>
+  <si>
+    <t>24HC01713-11D_46</t>
+  </si>
+  <si>
+    <t>24HC01713-11D_47</t>
+  </si>
+  <si>
+    <t>24HC01713-11D_48</t>
+  </si>
+  <si>
+    <t>24HC01713-11D_49</t>
+  </si>
+  <si>
+    <t>24HC01713-11D_50</t>
+  </si>
+  <si>
+    <t>24HC01713-11D_51</t>
+  </si>
+  <si>
+    <t>24HC01713-11D_52</t>
+  </si>
+  <si>
+    <t>24HC01713-11D_53</t>
+  </si>
+  <si>
+    <t>24HC01713-11D_54</t>
+  </si>
+  <si>
+    <t>24HC01713-11D_55</t>
+  </si>
+  <si>
+    <t>24HC01713-11D_56</t>
+  </si>
+  <si>
+    <t>24HC01713-11D_57</t>
+  </si>
+  <si>
+    <t>24HC01713-11D_58</t>
+  </si>
+  <si>
+    <t>24HC01713-11D_59</t>
+  </si>
+  <si>
+    <t>24HC01713-11D_60</t>
+  </si>
+  <si>
+    <t>24HC01713-11D_61</t>
+  </si>
+  <si>
+    <t>24HC01713-11D_62</t>
+  </si>
+  <si>
+    <t>24HC01713-11D_63</t>
+  </si>
+  <si>
+    <t>24HC01713-11D_64</t>
+  </si>
+  <si>
+    <t>24HC01713-11D_65</t>
+  </si>
+  <si>
+    <t>24HC01713-11D_66</t>
+  </si>
+  <si>
+    <t>24HC01713-12D_1</t>
+  </si>
+  <si>
+    <t>24HC01713-12D_2</t>
+  </si>
+  <si>
+    <t>24HC01713-12D_3</t>
+  </si>
+  <si>
+    <t>24HC01713-12D_4</t>
+  </si>
+  <si>
+    <t>24HC01713-12D_5</t>
+  </si>
+  <si>
+    <t>24HC01713-12D_6</t>
+  </si>
+  <si>
+    <t>24HC01713-12D_7</t>
+  </si>
+  <si>
+    <t>24HC01713-12D_8</t>
+  </si>
+  <si>
+    <t>24HC01713-12D_9</t>
+  </si>
+  <si>
+    <t>24HC01713-12D_10</t>
+  </si>
+  <si>
+    <t>24HC01713-12D_11</t>
+  </si>
+  <si>
+    <t>24HC01713-12D_12</t>
+  </si>
+  <si>
+    <t>24HC01713-12D_13</t>
+  </si>
+  <si>
+    <t>24HC01713-12D_14</t>
+  </si>
+  <si>
+    <t>24HC01713-12D_15</t>
+  </si>
+  <si>
+    <t>24HC01713-12D_16</t>
+  </si>
+  <si>
+    <t>24HC01713-12D_17</t>
+  </si>
+  <si>
+    <t>24HC01713-12D_18</t>
+  </si>
+  <si>
+    <t>24HC01713-12D_19</t>
+  </si>
+  <si>
+    <t>24HC01713-12D_20</t>
+  </si>
+  <si>
+    <t>24HC01713-12D_21</t>
+  </si>
+  <si>
+    <t>24HC01713-12D_22</t>
+  </si>
+  <si>
+    <t>24HC01713-12D_23</t>
+  </si>
+  <si>
+    <t>24HC01713-12D_24</t>
+  </si>
+  <si>
+    <t>24HC01713-12D_25</t>
+  </si>
+  <si>
+    <t>24HC01713-12D_26</t>
+  </si>
+  <si>
+    <t>24HC01713-12D_27</t>
+  </si>
+  <si>
+    <t>24HC01713-12D_28</t>
+  </si>
+  <si>
+    <t>24HC01713-12D_29</t>
+  </si>
+  <si>
+    <t>24HC01713-12D_30</t>
+  </si>
+  <si>
+    <t>24HC01713-12D_31</t>
+  </si>
+  <si>
+    <t>24HC01713-12D_32</t>
+  </si>
+  <si>
+    <t>24HC01713-12D_33</t>
+  </si>
+  <si>
+    <t>24HC01713-12D_34</t>
+  </si>
+  <si>
+    <t>24HC01713-12D_35</t>
+  </si>
+  <si>
+    <t>24HC01713-12D_36</t>
+  </si>
+  <si>
+    <t>24HC01713-12D_37</t>
+  </si>
+  <si>
+    <t>24HC01713-12D_38</t>
+  </si>
+  <si>
+    <t>24HC01713-12D_39</t>
+  </si>
+  <si>
+    <t>24HC01713-12D_40</t>
+  </si>
+  <si>
+    <t>24HC01713-12D_41</t>
+  </si>
+  <si>
+    <t>24HC01713-12D_42</t>
+  </si>
+  <si>
+    <t>24HC01713-12D_43</t>
+  </si>
+  <si>
+    <t>24HC01713-12D_44</t>
+  </si>
+  <si>
+    <t>24HC01713-12D_45</t>
+  </si>
+  <si>
+    <t>24HC01713-12D_46</t>
+  </si>
+  <si>
+    <t>24HC01713-12D_47</t>
+  </si>
+  <si>
+    <t>24HC01713-12D_48</t>
+  </si>
+  <si>
+    <t>24HC01713-12D_49</t>
+  </si>
+  <si>
+    <t>24HC01713-12D_50</t>
+  </si>
+  <si>
+    <t>24HC01713-12D_51</t>
+  </si>
+  <si>
+    <t>24HC01713-12D_52</t>
+  </si>
+  <si>
+    <t>24HC01713-12D_53</t>
+  </si>
+  <si>
+    <t>24HC01713-12D_54</t>
+  </si>
+  <si>
+    <t>24HC01713-12D_55</t>
+  </si>
+  <si>
+    <t>24HC01713-12D_56</t>
+  </si>
+  <si>
+    <t>24HC01713-12D_57</t>
+  </si>
+  <si>
+    <t>24HC01713-12D_58</t>
+  </si>
+  <si>
+    <t>24HC01713-12D_59</t>
+  </si>
+  <si>
+    <t>24HC01713-12D_60</t>
+  </si>
+  <si>
+    <t>24HC01713-12D_61</t>
+  </si>
+  <si>
+    <t>24HC01713-12D_62</t>
+  </si>
+  <si>
+    <t>24HC01713-12D_63</t>
+  </si>
+  <si>
+    <t>24HC01713-12D_64</t>
+  </si>
+  <si>
+    <t>24HC01713-12D_65</t>
+  </si>
+  <si>
+    <t>24HC01713-12D_66</t>
+  </si>
+  <si>
+    <t>24HC01713-13D_1</t>
+  </si>
+  <si>
+    <t>24HC01713-13D_2</t>
+  </si>
+  <si>
+    <t>24HC01713-13D_3</t>
+  </si>
+  <si>
+    <t>24HC01713-13D_4</t>
+  </si>
+  <si>
+    <t>24HC01713-13D_5</t>
+  </si>
+  <si>
+    <t>24HC01713-13D_6</t>
+  </si>
+  <si>
+    <t>24HC01713-13D_7</t>
+  </si>
+  <si>
+    <t>24HC01713-13D_8</t>
+  </si>
+  <si>
+    <t>24HC01713-13D_9</t>
+  </si>
+  <si>
+    <t>24HC01713-13D_10</t>
+  </si>
+  <si>
+    <t>24HC01713-13D_11</t>
+  </si>
+  <si>
+    <t>24HC01713-13D_12</t>
+  </si>
+  <si>
+    <t>24HC01713-13D_13</t>
+  </si>
+  <si>
+    <t>24HC01713-13D_14</t>
+  </si>
+  <si>
+    <t>24HC01713-13D_15</t>
+  </si>
+  <si>
+    <t>24HC01713-13D_16</t>
+  </si>
+  <si>
+    <t>24HC01713-13D_17</t>
+  </si>
+  <si>
+    <t>24HC01713-13D_18</t>
+  </si>
+  <si>
+    <t>24HC01713-13D_19</t>
+  </si>
+  <si>
+    <t>24HC01713-13D_20</t>
+  </si>
+  <si>
+    <t>24HC01713-13D_21</t>
+  </si>
+  <si>
+    <t>24HC01713-13D_22</t>
+  </si>
+  <si>
+    <t>24HC01713-13D_23</t>
+  </si>
+  <si>
+    <t>24HC01713-13D_24</t>
+  </si>
+  <si>
+    <t>24HC01713-13D_25</t>
+  </si>
+  <si>
+    <t>24HC01713-13D_26</t>
+  </si>
+  <si>
+    <t>24HC01713-13D_27</t>
+  </si>
+  <si>
+    <t>24HC01713-13D_28</t>
+  </si>
+  <si>
+    <t>24HC01713-13D_29</t>
+  </si>
+  <si>
+    <t>24HC01713-13D_30</t>
+  </si>
+  <si>
+    <t>24HC01713-13D_31</t>
+  </si>
+  <si>
+    <t>24HC01713-13D_32</t>
+  </si>
+  <si>
+    <t>24HC01713-13D_33</t>
+  </si>
+  <si>
+    <t>24HC01713-13D_34</t>
+  </si>
+  <si>
+    <t>24HC01713-13D_35</t>
+  </si>
+  <si>
+    <t>24HC01713-13D_36</t>
+  </si>
+  <si>
+    <t>24HC01713-13D_37</t>
+  </si>
+  <si>
+    <t>24HC01713-13D_38</t>
+  </si>
+  <si>
+    <t>24HC01713-13D_39</t>
+  </si>
+  <si>
+    <t>24HC01713-13D_40</t>
+  </si>
+  <si>
+    <t>24HC01713-13D_41</t>
+  </si>
+  <si>
+    <t>24HC01713-13D_42</t>
+  </si>
+  <si>
+    <t>24HC01713-13D_43</t>
+  </si>
+  <si>
+    <t>24HC01713-13D_44</t>
+  </si>
+  <si>
+    <t>24HC01713-13D_45</t>
+  </si>
+  <si>
+    <t>24HC01713-13D_46</t>
+  </si>
+  <si>
+    <t>24HC01713-13D_47</t>
+  </si>
+  <si>
+    <t>24HC01713-13D_48</t>
+  </si>
+  <si>
+    <t>24HC01713-13D_49</t>
+  </si>
+  <si>
+    <t>24HC01713-13D_50</t>
+  </si>
+  <si>
+    <t>24HC01713-13D_51</t>
+  </si>
+  <si>
+    <t>24HC01713-13D_52</t>
+  </si>
+  <si>
+    <t>24HC01713-13D_53</t>
+  </si>
+  <si>
+    <t>24HC01713-13D_54</t>
+  </si>
+  <si>
+    <t>24HC01713-13D_55</t>
+  </si>
+  <si>
+    <t>24HC01713-13D_56</t>
+  </si>
+  <si>
+    <t>24HC01713-13D_57</t>
+  </si>
+  <si>
+    <t>24HC01713-13D_58</t>
+  </si>
+  <si>
+    <t>24HC01713-13D_59</t>
+  </si>
+  <si>
+    <t>24HC01713-13D_60</t>
+  </si>
+  <si>
+    <t>24HC01713-13D_61</t>
+  </si>
+  <si>
+    <t>24HC01713-13D_62</t>
+  </si>
+  <si>
+    <t>24HC01713-13D_63</t>
+  </si>
+  <si>
+    <t>24HC01713-13D_64</t>
+  </si>
+  <si>
+    <t>24HC01713-13D_65</t>
+  </si>
+  <si>
+    <t>24HC01713-13D_66</t>
+  </si>
+  <si>
+    <t>24HC01713-13D_67</t>
+  </si>
+  <si>
+    <t>24HC01713-14D_1</t>
+  </si>
+  <si>
+    <t>24HC01713-14D_2</t>
+  </si>
+  <si>
+    <t>24HC01713-14D_3</t>
+  </si>
+  <si>
+    <t>24HC01713-14D_4</t>
+  </si>
+  <si>
+    <t>24HC01713-14D_5</t>
+  </si>
+  <si>
+    <t>24HC01713-14D_6</t>
+  </si>
+  <si>
+    <t>24HC01713-14D_7</t>
+  </si>
+  <si>
+    <t>24HC01713-14D_8</t>
+  </si>
+  <si>
+    <t>24HC01713-14D_9</t>
+  </si>
+  <si>
+    <t>24HC01713-14D_10</t>
+  </si>
+  <si>
+    <t>24HC01713-14D_11</t>
+  </si>
+  <si>
+    <t>24HC01713-14D_12</t>
+  </si>
+  <si>
+    <t>24HC01713-14D_13</t>
+  </si>
+  <si>
+    <t>24HC01713-14D_14</t>
+  </si>
+  <si>
+    <t>24HC01713-14D_15</t>
+  </si>
+  <si>
+    <t>24HC01713-14D_16</t>
+  </si>
+  <si>
+    <t>24HC01713-14D_17</t>
+  </si>
+  <si>
+    <t>24HC01713-14D_18</t>
+  </si>
+  <si>
+    <t>24HC01713-14D_19</t>
+  </si>
+  <si>
+    <t>24HC01713-14D_20</t>
+  </si>
+  <si>
+    <t>24HC01713-14D_21</t>
+  </si>
+  <si>
+    <t>24HC01713-14D_22</t>
+  </si>
+  <si>
+    <t>24HC01713-14D_23</t>
+  </si>
+  <si>
+    <t>24HC01713-14D_24</t>
+  </si>
+  <si>
+    <t>24HC01713-14D_25</t>
+  </si>
+  <si>
+    <t>24HC01713-14D_26</t>
+  </si>
+  <si>
+    <t>24HC01713-14D_27</t>
+  </si>
+  <si>
+    <t>24HC01713-14D_28</t>
+  </si>
+  <si>
+    <t>24HC01713-14D_29</t>
+  </si>
+  <si>
+    <t>24HC01713-14D_30</t>
+  </si>
+  <si>
+    <t>24HC01713-14D_31</t>
+  </si>
+  <si>
+    <t>24HC01713-14D_32</t>
+  </si>
+  <si>
+    <t>24HC01713-14D_33</t>
+  </si>
+  <si>
+    <t>24HC01713-14D_34</t>
+  </si>
+  <si>
+    <t>24HC01713-14D_35</t>
+  </si>
+  <si>
+    <t>24HC01713-14D_36</t>
+  </si>
+  <si>
+    <t>24HC01713-14D_37</t>
+  </si>
+  <si>
+    <t>24HC01713-14D_38</t>
+  </si>
+  <si>
+    <t>24HC01713-14D_39</t>
+  </si>
+  <si>
+    <t>24HC01713-14D_40</t>
+  </si>
+  <si>
+    <t>24HC01713-14D_41</t>
+  </si>
+  <si>
+    <t>24HC01713-14D_42</t>
+  </si>
+  <si>
+    <t>24HC01713-14D_43</t>
+  </si>
+  <si>
+    <t>24HC01713-14D_44</t>
+  </si>
+  <si>
+    <t>24HC01713-14D_45</t>
+  </si>
+  <si>
+    <t>24HC01713-14D_46</t>
+  </si>
+  <si>
+    <t>24HC01713-14D_47</t>
+  </si>
+  <si>
+    <t>24HC01713-14D_48</t>
+  </si>
+  <si>
+    <t>24HC01713-14D_49</t>
+  </si>
+  <si>
+    <t>24HC01713-14D_50</t>
+  </si>
+  <si>
+    <t>24HC01713-14D_51</t>
+  </si>
+  <si>
+    <t>24HC01713-14D_52</t>
+  </si>
+  <si>
+    <t>24HC01713-14D_53</t>
+  </si>
+  <si>
+    <t>24HC01713-14D_54</t>
+  </si>
+  <si>
+    <t>24HC01713-14D_55</t>
+  </si>
+  <si>
+    <t>24HC01713-14D_56</t>
+  </si>
+  <si>
+    <t>24HC01713-14D_57</t>
+  </si>
+  <si>
+    <t>24HC01713-14D_58</t>
+  </si>
+  <si>
+    <t>24HC01713-14D_59</t>
+  </si>
+  <si>
+    <t>24HC01713-14D_60</t>
+  </si>
+  <si>
+    <t>24HC01713-14D_61</t>
+  </si>
+  <si>
+    <t>24HC01713-14D_62</t>
+  </si>
+  <si>
+    <t>24HC01713-14D_63</t>
+  </si>
+  <si>
+    <t>24HC01713-14D_64</t>
+  </si>
+  <si>
+    <t>24HC01713-14D_65</t>
+  </si>
+  <si>
+    <t>24HC01713-14D_66</t>
+  </si>
+  <si>
+    <t>24HC01713-15D_1</t>
+  </si>
+  <si>
+    <t>24HC01713-15D_2</t>
+  </si>
+  <si>
+    <t>24HC01713-15D_3</t>
+  </si>
+  <si>
+    <t>24HC01713-15D_4</t>
+  </si>
+  <si>
+    <t>24HC01713-15D_5</t>
+  </si>
+  <si>
+    <t>24HC01713-15D_6</t>
+  </si>
+  <si>
+    <t>24HC01713-15D_7</t>
+  </si>
+  <si>
+    <t>24HC01713-15D_8</t>
+  </si>
+  <si>
+    <t>24HC01713-15D_9</t>
+  </si>
+  <si>
+    <t>24HC01713-15D_10</t>
+  </si>
+  <si>
+    <t>24HC01713-15D_11</t>
+  </si>
+  <si>
+    <t>24HC01713-15D_12</t>
+  </si>
+  <si>
+    <t>24HC01713-15D_13</t>
+  </si>
+  <si>
+    <t>24HC01713-15D_14</t>
+  </si>
+  <si>
+    <t>24HC01713-15D_15</t>
+  </si>
+  <si>
+    <t>24HC01713-15D_16</t>
+  </si>
+  <si>
+    <t>24HC01713-15D_17</t>
+  </si>
+  <si>
+    <t>24HC01713-15D_18</t>
+  </si>
+  <si>
+    <t>24HC01713-15D_19</t>
+  </si>
+  <si>
+    <t>24HC01713-15D_20</t>
+  </si>
+  <si>
+    <t>24HC01713-15D_21</t>
+  </si>
+  <si>
+    <t>24HC01713-15D_22</t>
+  </si>
+  <si>
+    <t>24HC01713-15D_23</t>
+  </si>
+  <si>
+    <t>24HC01713-15D_24</t>
+  </si>
+  <si>
+    <t>24HC01713-15D_25</t>
+  </si>
+  <si>
+    <t>24HC01713-15D_26</t>
+  </si>
+  <si>
+    <t>24HC01713-15D_27</t>
+  </si>
+  <si>
+    <t>24HC01713-15D_28</t>
+  </si>
+  <si>
+    <t>24HC01713-15D_29</t>
+  </si>
+  <si>
+    <t>24HC01713-15D_30</t>
+  </si>
+  <si>
+    <t>24HC01713-15D_31</t>
+  </si>
+  <si>
+    <t>24HC01713-15D_32</t>
+  </si>
+  <si>
+    <t>24HC01713-15D_33</t>
+  </si>
+  <si>
+    <t>24HC01713-15D_34</t>
+  </si>
+  <si>
+    <t>24HC01713-15D_35</t>
+  </si>
+  <si>
+    <t>24HC01713-15D_36</t>
+  </si>
+  <si>
+    <t>24HC01713-15D_37</t>
+  </si>
+  <si>
+    <t>24HC01713-15D_38</t>
+  </si>
+  <si>
+    <t>24HC01713-15D_39</t>
+  </si>
+  <si>
+    <t>24HC01713-15D_40</t>
+  </si>
+  <si>
+    <t>24HC01713-15D_41</t>
+  </si>
+  <si>
+    <t>24HC01713-15D_42</t>
+  </si>
+  <si>
+    <t>24HC01713-15D_43</t>
+  </si>
+  <si>
+    <t>24HC01713-15D_44</t>
+  </si>
+  <si>
+    <t>24HC01713-15D_45</t>
+  </si>
+  <si>
+    <t>24HC01713-15D_46</t>
+  </si>
+  <si>
+    <t>24HC01713-15D_47</t>
+  </si>
+  <si>
+    <t>24HC01713-15D_48</t>
+  </si>
+  <si>
+    <t>24HC01713-15D_49</t>
+  </si>
+  <si>
+    <t>24HC01713-15D_50</t>
+  </si>
+  <si>
+    <t>24HC01713-16D_1</t>
+  </si>
+  <si>
+    <t>24HC01713-16D_2</t>
+  </si>
+  <si>
+    <t>24HC01713-16D_3</t>
+  </si>
+  <si>
+    <t>24HC01713-16D_4</t>
+  </si>
+  <si>
+    <t>24HC01713-16D_5</t>
+  </si>
+  <si>
+    <t>24HC01713-16D_6</t>
+  </si>
+  <si>
+    <t>24HC01713-16D_7</t>
+  </si>
+  <si>
+    <t>24HC01713-16D_8</t>
+  </si>
+  <si>
+    <t>24HC01713-16D_9</t>
+  </si>
+  <si>
+    <t>24HC01713-16D_10</t>
+  </si>
+  <si>
+    <t>24HC01713-16D_11</t>
+  </si>
+  <si>
+    <t>24HC01713-16D_12</t>
+  </si>
+  <si>
+    <t>24HC01713-16D_13</t>
+  </si>
+  <si>
+    <t>24HC01713-16D_14</t>
+  </si>
+  <si>
+    <t>24HC01713-16D_15</t>
+  </si>
+  <si>
+    <t>24HC01713-16D_16</t>
+  </si>
+  <si>
+    <t>24HC01713-16D_17</t>
+  </si>
+  <si>
+    <t>24HC01713-16D_18</t>
+  </si>
+  <si>
+    <t>24HC01713-16D_19</t>
+  </si>
+  <si>
+    <t>24HC01713-16D_20</t>
+  </si>
+  <si>
+    <t>24HC01713-16D_21</t>
+  </si>
+  <si>
+    <t>24HC01713-16D_22</t>
+  </si>
+  <si>
+    <t>24HC01713-16D_23</t>
+  </si>
+  <si>
+    <t>24HC01713-16D_24</t>
+  </si>
+  <si>
+    <t>24HC01713-16D_25</t>
+  </si>
+  <si>
+    <t>24HC01713-16D_26</t>
+  </si>
+  <si>
+    <t>24HC01713-16D_27</t>
+  </si>
+  <si>
+    <t>24HC01713-16D_28</t>
+  </si>
+  <si>
+    <t>24HC01713-16D_29</t>
+  </si>
+  <si>
+    <t>24HC01713-16D_30</t>
+  </si>
+  <si>
+    <t>24HC01713-16D_31</t>
+  </si>
+  <si>
+    <t>24HC01713-16D_32</t>
+  </si>
+  <si>
+    <t>24HC01713-16D_33</t>
+  </si>
+  <si>
+    <t>24HC01713-16D_34</t>
+  </si>
+  <si>
+    <t>24HC01713-16D_35</t>
+  </si>
+  <si>
+    <t>24HC01713-16D_36</t>
+  </si>
+  <si>
+    <t>24HC01713-16D_37</t>
+  </si>
+  <si>
+    <t>24HC01713-16D_38</t>
+  </si>
+  <si>
+    <t>24HC01713-16D_39</t>
+  </si>
+  <si>
+    <t>24HC01713-16D_40</t>
+  </si>
+  <si>
+    <t>24HC01713-16D_41</t>
+  </si>
+  <si>
+    <t>24HC01713-16D_42</t>
+  </si>
+  <si>
+    <t>24HC01713-16D_43</t>
+  </si>
+  <si>
+    <t>24HC01713-16D_44</t>
+  </si>
+  <si>
+    <t>24HC01713-16D_45</t>
+  </si>
+  <si>
+    <t>24HC01713-16D_46</t>
+  </si>
+  <si>
+    <t>24HC01713-16D_47</t>
+  </si>
+  <si>
+    <t>24HC01713-16D_48</t>
+  </si>
+  <si>
+    <t>24HC01713-16D_49</t>
+  </si>
+  <si>
+    <t>24HC01713-16D_50</t>
+  </si>
+  <si>
+    <t>24HC01713-17D_1</t>
+  </si>
+  <si>
+    <t>24HC01713-17D_2</t>
+  </si>
+  <si>
+    <t>24HC01713-17D_3</t>
+  </si>
+  <si>
+    <t>24HC01713-17D_4</t>
+  </si>
+  <si>
+    <t>24HC01713-17D_5</t>
+  </si>
+  <si>
+    <t>24HC01713-17D_6</t>
+  </si>
+  <si>
+    <t>24HC01713-17D_7</t>
+  </si>
+  <si>
+    <t>24HC01713-17D_8</t>
+  </si>
+  <si>
+    <t>24HC01713-17D_9</t>
+  </si>
+  <si>
+    <t>24HC01713-17D_10</t>
+  </si>
+  <si>
+    <t>24HC01713-17D_11</t>
+  </si>
+  <si>
+    <t>24HC01713-17D_12</t>
+  </si>
+  <si>
+    <t>24HC01713-17D_13</t>
+  </si>
+  <si>
+    <t>24HC01713-17D_14</t>
+  </si>
+  <si>
+    <t>24HC01713-17D_15</t>
+  </si>
+  <si>
+    <t>24HC01713-17D_16</t>
+  </si>
+  <si>
+    <t>24HC01713-17D_17</t>
+  </si>
+  <si>
+    <t>24HC01713-17D_18</t>
+  </si>
+  <si>
+    <t>24HC01713-17D_19</t>
+  </si>
+  <si>
+    <t>24HC01713-17D_20</t>
+  </si>
+  <si>
+    <t>24HC01713-17D_21</t>
+  </si>
+  <si>
+    <t>24HC01713-17D_22</t>
+  </si>
+  <si>
+    <t>24HC01713-17D_23</t>
+  </si>
+  <si>
+    <t>24HC01713-17D_24</t>
+  </si>
+  <si>
+    <t>24HC01713-17D_25</t>
+  </si>
+  <si>
+    <t>24HC01713-17D_26</t>
+  </si>
+  <si>
+    <t>24HC01713-17D_27</t>
+  </si>
+  <si>
+    <t>24HC01713-17D_28</t>
+  </si>
+  <si>
+    <t>24HC01713-17D_29</t>
+  </si>
+  <si>
+    <t>24HC01713-17D_30</t>
+  </si>
+  <si>
+    <t>24HC01713-17D_31</t>
+  </si>
+  <si>
+    <t>24HC01713-17D_32</t>
+  </si>
+  <si>
+    <t>24HC01713-17D_33</t>
+  </si>
+  <si>
+    <t>24HC01713-17D_34</t>
+  </si>
+  <si>
+    <t>24HC01713-17D_35</t>
+  </si>
+  <si>
+    <t>24HC01713-17D_36</t>
+  </si>
+  <si>
+    <t>24HC01713-17D_37</t>
+  </si>
+  <si>
+    <t>24HC01713-17D_38</t>
+  </si>
+  <si>
+    <t>24HC01713-17D_39</t>
+  </si>
+  <si>
+    <t>24HC01713-17D_40</t>
+  </si>
+  <si>
+    <t>24HC01713-17D_41</t>
+  </si>
+  <si>
+    <t>24HC01713-17D_42</t>
+  </si>
+  <si>
+    <t>24HC01713-17D_43</t>
+  </si>
+  <si>
+    <t>24HC01713-17D_44</t>
+  </si>
+  <si>
+    <t>24HC01713-17D_45</t>
+  </si>
+  <si>
+    <t>24HC01713-17D_46</t>
+  </si>
+  <si>
+    <t>24HC01713-17D_47</t>
+  </si>
+  <si>
+    <t>24HC01713-17D_48</t>
+  </si>
+  <si>
+    <t>24HC01713-17D_49</t>
+  </si>
+  <si>
+    <t>24HC01713-17D_50</t>
+  </si>
+  <si>
+    <t>24HC01713-18D_1</t>
+  </si>
+  <si>
+    <t>24HC01713-18D_2</t>
+  </si>
+  <si>
+    <t>24HC01713-18D_3</t>
+  </si>
+  <si>
+    <t>24HC01713-18D_4</t>
+  </si>
+  <si>
+    <t>24HC01713-18D_5</t>
+  </si>
+  <si>
+    <t>24HC01713-18D_6</t>
+  </si>
+  <si>
+    <t>24HC01713-18D_7</t>
+  </si>
+  <si>
+    <t>24HC01713-18D_8</t>
+  </si>
+  <si>
+    <t>24HC01713-18D_9</t>
+  </si>
+  <si>
+    <t>24HC01713-18D_10</t>
+  </si>
+  <si>
+    <t>24HC01713-18D_11</t>
+  </si>
+  <si>
+    <t>24HC01713-18D_12</t>
+  </si>
+  <si>
+    <t>24HC01713-18D_13</t>
+  </si>
+  <si>
+    <t>24HC01713-18D_14</t>
+  </si>
+  <si>
+    <t>24HC01713-18D_15</t>
+  </si>
+  <si>
+    <t>24HC01713-18D_16</t>
+  </si>
+  <si>
+    <t>24HC01713-18D_17</t>
+  </si>
+  <si>
+    <t>24HC01713-18D_18</t>
+  </si>
+  <si>
+    <t>24HC01713-18D_19</t>
+  </si>
+  <si>
+    <t>24HC01713-18D_20</t>
+  </si>
+  <si>
+    <t>24HC01713-18D_21</t>
+  </si>
+  <si>
+    <t>24HC01713-18D_22</t>
+  </si>
+  <si>
+    <t>24HC01713-18D_23</t>
+  </si>
+  <si>
+    <t>24HC01713-18D_24</t>
+  </si>
+  <si>
+    <t>24HC01713-18D_25</t>
+  </si>
+  <si>
+    <t>24HC01713-18D_26</t>
+  </si>
+  <si>
+    <t>24HC01713-18D_27</t>
+  </si>
+  <si>
+    <t>24HC01713-18D_28</t>
+  </si>
+  <si>
+    <t>24HC01713-18D_29</t>
+  </si>
+  <si>
+    <t>24HC01713-18D_30</t>
+  </si>
+  <si>
+    <t>24HC01713-18D_31</t>
+  </si>
+  <si>
+    <t>24HC01713-18D_32</t>
+  </si>
+  <si>
+    <t>24HC01713-18D_33</t>
+  </si>
+  <si>
+    <t>24HC01713-18D_34</t>
+  </si>
+  <si>
+    <t>24HC01713-18D_35</t>
+  </si>
+  <si>
+    <t>24HC01713-18D_36</t>
+  </si>
+  <si>
+    <t>24HC01713-18D_37</t>
+  </si>
+  <si>
+    <t>24HC01713-18D_38</t>
+  </si>
+  <si>
+    <t>24HC01713-18D_39</t>
+  </si>
+  <si>
+    <t>24HC01713-18D_40</t>
+  </si>
+  <si>
+    <t>24HC01713-18D_41</t>
+  </si>
+  <si>
+    <t>24HC01713-18D_42</t>
+  </si>
+  <si>
+    <t>24HC01713-18D_43</t>
+  </si>
+  <si>
+    <t>24HC01713-18D_44</t>
+  </si>
+  <si>
+    <t>24HC01713-18D_45</t>
+  </si>
+  <si>
+    <t>24HC01713-18D_46</t>
+  </si>
+  <si>
+    <t>24HC01713-18D_47</t>
+  </si>
+  <si>
+    <t>24HC01713-18D_48</t>
+  </si>
+  <si>
+    <t>24HC01713-18D_49</t>
+  </si>
+  <si>
+    <t>24HC01713-18D_50</t>
+  </si>
+  <si>
+    <t>24HC01713-18D_51</t>
+  </si>
+  <si>
+    <t>24HC01713-19D_1</t>
+  </si>
+  <si>
+    <t>24HC01713-19D_2</t>
+  </si>
+  <si>
+    <t>24HC01713-19D_3</t>
+  </si>
+  <si>
+    <t>24HC01713-19D_4</t>
+  </si>
+  <si>
+    <t>24HC01713-19D_5</t>
+  </si>
+  <si>
+    <t>24HC01713-19D_6</t>
+  </si>
+  <si>
+    <t>24HC01713-19D_7</t>
+  </si>
+  <si>
+    <t>24HC01713-19D_8</t>
+  </si>
+  <si>
+    <t>24HC01713-19D_9</t>
+  </si>
+  <si>
+    <t>24HC01713-19D_10</t>
+  </si>
+  <si>
+    <t>24HC01713-19D_11</t>
+  </si>
+  <si>
+    <t>24HC01713-19D_12</t>
+  </si>
+  <si>
+    <t>24HC01713-19D_13</t>
+  </si>
+  <si>
+    <t>24HC01713-19D_14</t>
+  </si>
+  <si>
+    <t>24HC01713-19D_15</t>
+  </si>
+  <si>
+    <t>24HC01713-19D_16</t>
+  </si>
+  <si>
+    <t>24HC01713-19D_17</t>
+  </si>
+  <si>
+    <t>24HC01713-19D_18</t>
+  </si>
+  <si>
+    <t>24HC01713-19D_19</t>
+  </si>
+  <si>
+    <t>24HC01713-19D_20</t>
+  </si>
+  <si>
+    <t>24HC01713-19D_21</t>
+  </si>
+  <si>
+    <t>24HC01713-19D_22</t>
+  </si>
+  <si>
+    <t>24HC01713-19D_23</t>
+  </si>
+  <si>
+    <t>24HC01713-19D_24</t>
+  </si>
+  <si>
+    <t>24HC01713-19D_25</t>
+  </si>
+  <si>
+    <t>24HC01713-19D_26</t>
+  </si>
+  <si>
+    <t>24HC01713-19D_27</t>
+  </si>
+  <si>
+    <t>24HC01713-19D_28</t>
+  </si>
+  <si>
+    <t>24HC01713-19D_29</t>
+  </si>
+  <si>
+    <t>24HC01713-19D_30</t>
+  </si>
+  <si>
+    <t>24HC01713-19D_31</t>
+  </si>
+  <si>
+    <t>24HC01713-19D_32</t>
+  </si>
+  <si>
+    <t>24HC01713-19D_33</t>
+  </si>
+  <si>
+    <t>24HC01713-19D_34</t>
+  </si>
+  <si>
+    <t>24HC01713-19D_35</t>
+  </si>
+  <si>
+    <t>24HC01713-19D_36</t>
+  </si>
+  <si>
+    <t>24HC01713-19D_37</t>
+  </si>
+  <si>
+    <t>24HC01713-19D_38</t>
+  </si>
+  <si>
+    <t>24HC01713-19D_39</t>
+  </si>
+  <si>
+    <t>24HC01713-19D_40</t>
+  </si>
+  <si>
+    <t>24HC01713-19D_41</t>
+  </si>
+  <si>
+    <t>24HC01713-19D_42</t>
+  </si>
+  <si>
+    <t>24HC01713-19D_43</t>
+  </si>
+  <si>
+    <t>24HC01713-19D_44</t>
+  </si>
+  <si>
+    <t>24HC01713-19D_45</t>
+  </si>
+  <si>
+    <t>24HC01713-19D_46</t>
+  </si>
+  <si>
+    <t>24HC01713-19D_47</t>
+  </si>
+  <si>
+    <t>24HC01713-19D_48</t>
+  </si>
+  <si>
+    <t>24HC01713-19D_49</t>
+  </si>
+  <si>
+    <t>24HC01713-19D_50</t>
+  </si>
+  <si>
+    <t>24HC01713-20D_1</t>
+  </si>
+  <si>
+    <t>24HC01713-20D_2</t>
+  </si>
+  <si>
+    <t>24HC01713-20D_3</t>
+  </si>
+  <si>
+    <t>24HC01713-20D_4</t>
+  </si>
+  <si>
+    <t>24HC01713-20D_5</t>
+  </si>
+  <si>
+    <t>24HC01713-20D_6</t>
+  </si>
+  <si>
+    <t>24HC01713-20D_7</t>
+  </si>
+  <si>
+    <t>24HC01713-20D_8</t>
+  </si>
+  <si>
+    <t>24HC01713-20D_9</t>
+  </si>
+  <si>
+    <t>24HC01713-20D_10</t>
+  </si>
+  <si>
+    <t>24HC01713-20D_11</t>
+  </si>
+  <si>
+    <t>24HC01713-20D_12</t>
+  </si>
+  <si>
+    <t>24HC01713-20D_13</t>
+  </si>
+  <si>
+    <t>24HC01713-20D_14</t>
+  </si>
+  <si>
+    <t>24HC01713-20D_15</t>
+  </si>
+  <si>
+    <t>24HC01713-20D_16</t>
+  </si>
+  <si>
+    <t>24HC01713-20D_17</t>
+  </si>
+  <si>
+    <t>24HC01713-20D_18</t>
+  </si>
+  <si>
+    <t>24HC01713-20D_19</t>
+  </si>
+  <si>
+    <t>24HC01713-20D_20</t>
+  </si>
+  <si>
+    <t>24HC01713-20D_21</t>
+  </si>
+  <si>
+    <t>24HC01713-20D_22</t>
+  </si>
+  <si>
+    <t>24HC01713-20D_23</t>
+  </si>
+  <si>
+    <t>24HC01713-20D_24</t>
+  </si>
+  <si>
+    <t>24HC01713-20D_25</t>
+  </si>
+  <si>
+    <t>24HC01713-20D_26</t>
+  </si>
+  <si>
+    <t>24HC01713-20D_27</t>
+  </si>
+  <si>
+    <t>24HC01713-20D_28</t>
+  </si>
+  <si>
+    <t>24HC01713-20D_29</t>
+  </si>
+  <si>
+    <t>24HC01713-20D_30</t>
+  </si>
+  <si>
+    <t>24HC01713-20D_31</t>
+  </si>
+  <si>
+    <t>24HC01713-20D_32</t>
+  </si>
+  <si>
+    <t>24HC01713-20D_33</t>
+  </si>
+  <si>
+    <t>24HC01713-20D_34</t>
+  </si>
+  <si>
+    <t>24HC01713-20D_35</t>
+  </si>
+  <si>
+    <t>24HC01713-20D_36</t>
+  </si>
+  <si>
+    <t>24HC01713-20D_37</t>
+  </si>
+  <si>
+    <t>24HC01713-20D_38</t>
+  </si>
+  <si>
+    <t>24HC01713-20D_39</t>
+  </si>
+  <si>
+    <t>24HC01713-20D_40</t>
+  </si>
+  <si>
+    <t>24HC01713-20D_41</t>
+  </si>
+  <si>
+    <t>24HC01713-20D_42</t>
+  </si>
+  <si>
+    <t>24HC01713-20D_43</t>
+  </si>
+  <si>
+    <t>24HC01713-20D_44</t>
+  </si>
+  <si>
+    <t>24HC01713-20D_45</t>
+  </si>
+  <si>
+    <t>24HC01713-20D_46</t>
+  </si>
+  <si>
+    <t>24HC01713-20D_47</t>
+  </si>
+  <si>
+    <t>24HC01713-20D_48</t>
+  </si>
+  <si>
+    <t>24HC01713-20D_49</t>
+  </si>
+  <si>
+    <t>24HC01713-20D_50</t>
+  </si>
+  <si>
+    <t>24HC01713-21D_1</t>
+  </si>
+  <si>
+    <t>24HC01713-21D_2</t>
+  </si>
+  <si>
+    <t>24HC01713-21D_3</t>
+  </si>
+  <si>
+    <t>24HC01713-21D_4</t>
+  </si>
+  <si>
+    <t>24HC01713-21D_5</t>
+  </si>
+  <si>
+    <t>24HC01713-21D_6</t>
+  </si>
+  <si>
+    <t>24HC01713-21D_7</t>
+  </si>
+  <si>
+    <t>24HC01713-21D_8</t>
+  </si>
+  <si>
+    <t>24HC01713-21D_9</t>
+  </si>
+  <si>
+    <t>24HC01713-21D_10</t>
+  </si>
+  <si>
+    <t>24HC01713-21D_11</t>
+  </si>
+  <si>
+    <t>24HC01713-21D_12</t>
+  </si>
+  <si>
+    <t>24HC01713-21D_13</t>
+  </si>
+  <si>
+    <t>24HC01713-21D_14</t>
+  </si>
+  <si>
+    <t>24HC01713-21D_15</t>
+  </si>
+  <si>
+    <t>24HC01713-21D_16</t>
+  </si>
+  <si>
+    <t>24HC01713-21D_17</t>
+  </si>
+  <si>
+    <t>24HC01713-21D_18</t>
+  </si>
+  <si>
+    <t>24HC01713-21D_19</t>
+  </si>
+  <si>
+    <t>24HC01713-21D_20</t>
+  </si>
+  <si>
+    <t>24HC01713-21D_21</t>
+  </si>
+  <si>
+    <t>24HC01713-21D_22</t>
+  </si>
+  <si>
+    <t>24HC01713-21D_23</t>
+  </si>
+  <si>
+    <t>24HC01713-21D_24</t>
+  </si>
+  <si>
+    <t>24HC01713-21D_25</t>
+  </si>
+  <si>
+    <t>24HC01713-21D_26</t>
+  </si>
+  <si>
+    <t>24HC01713-21D_27</t>
+  </si>
+  <si>
+    <t>24HC01713-21D_28</t>
+  </si>
+  <si>
+    <t>24HC01713-21D_29</t>
+  </si>
+  <si>
+    <t>24HC01713-21D_30</t>
+  </si>
+  <si>
+    <t>24HC01713-21D_31</t>
+  </si>
+  <si>
+    <t>24HC01713-21D_32</t>
+  </si>
+  <si>
+    <t>24HC01713-21D_33</t>
+  </si>
+  <si>
+    <t>24HC01713-21D_34</t>
+  </si>
+  <si>
+    <t>24HC01713-21D_35</t>
+  </si>
+  <si>
+    <t>24HC01713-21D_36</t>
+  </si>
+  <si>
+    <t>24HC01713-21D_37</t>
+  </si>
+  <si>
+    <t>24HC01713-21D_38</t>
+  </si>
+  <si>
+    <t>24HC01713-21D_39</t>
+  </si>
+  <si>
+    <t>24HC01713-21D_40</t>
+  </si>
+  <si>
+    <t>24HC01713-21D_41</t>
+  </si>
+  <si>
+    <t>24HC01713-21D_42</t>
+  </si>
+  <si>
+    <t>24HC01713-21D_43</t>
+  </si>
+  <si>
+    <t>24HC01713-21D_44</t>
+  </si>
+  <si>
+    <t>24HC01713-21D_45</t>
+  </si>
+  <si>
+    <t>24HC01713-21D_46</t>
+  </si>
+  <si>
+    <t>24HC01713-21D_47</t>
+  </si>
+  <si>
+    <t>24HC01713-21D_48</t>
+  </si>
+  <si>
+    <t>24HC01713-21D_49</t>
+  </si>
+  <si>
+    <t>24HC01713-21D_50</t>
+  </si>
+  <si>
+    <t>24HC01713-22D_1</t>
+  </si>
+  <si>
+    <t>24HC01713-22D_2</t>
+  </si>
+  <si>
+    <t>24HC01713-22D_3</t>
+  </si>
+  <si>
+    <t>24HC01713-22D_4</t>
+  </si>
+  <si>
+    <t>24HC01713-22D_5</t>
+  </si>
+  <si>
+    <t>24HC01713-22D_6</t>
+  </si>
+  <si>
+    <t>24HC01713-22D_7</t>
+  </si>
+  <si>
+    <t>24HC01713-22D_8</t>
+  </si>
+  <si>
+    <t>24HC01713-22D_9</t>
+  </si>
+  <si>
+    <t>24HC01713-22D_10</t>
+  </si>
+  <si>
+    <t>24HC01713-22D_11</t>
+  </si>
+  <si>
+    <t>24HC01713-22D_12</t>
+  </si>
+  <si>
+    <t>24HC01713-22D_13</t>
+  </si>
+  <si>
+    <t>24HC01713-22D_14</t>
+  </si>
+  <si>
+    <t>24HC01713-22D_15</t>
+  </si>
+  <si>
+    <t>24HC01713-22D_16</t>
+  </si>
+  <si>
+    <t>24HC01713-22D_17</t>
+  </si>
+  <si>
+    <t>24HC01713-22D_18</t>
+  </si>
+  <si>
+    <t>24HC01713-22D_19</t>
+  </si>
+  <si>
+    <t>24HC01713-22D_20</t>
+  </si>
+  <si>
+    <t>24HC01713-22D_21</t>
+  </si>
+  <si>
+    <t>24HC01713-22D_22</t>
+  </si>
+  <si>
+    <t>24HC01713-22D_23</t>
+  </si>
+  <si>
+    <t>24HC01713-22D_24</t>
+  </si>
+  <si>
+    <t>24HC01713-22D_25</t>
+  </si>
+  <si>
+    <t>24HC01713-22D_26</t>
+  </si>
+  <si>
+    <t>24HC01713-22D_27</t>
+  </si>
+  <si>
+    <t>24HC01713-22D_28</t>
+  </si>
+  <si>
+    <t>24HC01713-22D_29</t>
+  </si>
+  <si>
+    <t>24HC01713-22D_30</t>
+  </si>
+  <si>
+    <t>24HC01713-22D_31</t>
+  </si>
+  <si>
+    <t>24HC01713-22D_32</t>
+  </si>
+  <si>
+    <t>24HC01713-22D_33</t>
+  </si>
+  <si>
+    <t>24HC01713-22D_34</t>
+  </si>
+  <si>
+    <t>24HC01713-22D_35</t>
+  </si>
+  <si>
+    <t>24HC01713-22D_36</t>
+  </si>
+  <si>
+    <t>24HC01713-22D_37</t>
+  </si>
+  <si>
+    <t>24HC01713-22D_38</t>
+  </si>
+  <si>
+    <t>24HC01713-22D_39</t>
+  </si>
+  <si>
+    <t>24HC01713-22D_40</t>
+  </si>
+  <si>
+    <t>24HC01713-22D_41</t>
+  </si>
+  <si>
+    <t>24HC01713-22D_42</t>
+  </si>
+  <si>
+    <t>24HC01713-22D_43</t>
+  </si>
+  <si>
+    <t>24HC01713-22D_44</t>
+  </si>
+  <si>
+    <t>24HC01713-22D_45</t>
+  </si>
+  <si>
+    <t>24HC01713-22D_46</t>
+  </si>
+  <si>
+    <t>24HC01713-22D_47</t>
+  </si>
+  <si>
+    <t>24HC01713-22D_48</t>
+  </si>
+  <si>
+    <t>24HC01713-22D_49</t>
+  </si>
+  <si>
+    <t>24HC01713-22D_50</t>
+  </si>
+  <si>
+    <t>24HC01713-23D_1</t>
+  </si>
+  <si>
+    <t>24HC01713-23D_2</t>
+  </si>
+  <si>
+    <t>24HC01713-23D_3</t>
+  </si>
+  <si>
+    <t>24HC01713-23D_4</t>
+  </si>
+  <si>
+    <t>24HC01713-23D_5</t>
+  </si>
+  <si>
+    <t>24HC01713-23D_6</t>
+  </si>
+  <si>
+    <t>24HC01713-23D_7</t>
+  </si>
+  <si>
+    <t>24HC01713-23D_8</t>
+  </si>
+  <si>
+    <t>24HC01713-23D_9</t>
+  </si>
+  <si>
+    <t>24HC01713-23D_10</t>
+  </si>
+  <si>
+    <t>24HC01713-23D_11</t>
+  </si>
+  <si>
+    <t>24HC01713-23D_12</t>
+  </si>
+  <si>
+    <t>24HC01713-23D_13</t>
+  </si>
+  <si>
+    <t>24HC01713-23D_14</t>
+  </si>
+  <si>
+    <t>24HC01713-23D_15</t>
+  </si>
+  <si>
+    <t>24HC01713-23D_16</t>
+  </si>
+  <si>
+    <t>24HC01713-23D_17</t>
+  </si>
+  <si>
+    <t>24HC01713-23D_18</t>
+  </si>
+  <si>
+    <t>24HC01713-23D_19</t>
+  </si>
+  <si>
+    <t>24HC01713-23D_20</t>
+  </si>
+  <si>
+    <t>24HC01713-23D_21</t>
+  </si>
+  <si>
+    <t>24HC01713-23D_22</t>
+  </si>
+  <si>
+    <t>24HC01713-23D_23</t>
+  </si>
+  <si>
+    <t>24HC01713-23D_24</t>
+  </si>
+  <si>
+    <t>24HC01713-23D_25</t>
+  </si>
+  <si>
+    <t>24HC01713-23D_26</t>
+  </si>
+  <si>
+    <t>24HC01713-23D_27</t>
+  </si>
+  <si>
+    <t>24HC01713-23D_28</t>
+  </si>
+  <si>
+    <t>24HC01713-23D_29</t>
+  </si>
+  <si>
+    <t>24HC01713-23D_30</t>
+  </si>
+  <si>
+    <t>24HC01713-23D_31</t>
+  </si>
+  <si>
+    <t>24HC01713-23D_32</t>
+  </si>
+  <si>
+    <t>24HC01713-23D_33</t>
+  </si>
+  <si>
+    <t>24HC01713-23D_34</t>
+  </si>
+  <si>
+    <t>24HC01713-23D_35</t>
+  </si>
+  <si>
+    <t>24HC01713-23D_36</t>
+  </si>
+  <si>
+    <t>24HC01713-23D_37</t>
+  </si>
+  <si>
+    <t>24HC01713-23D_38</t>
+  </si>
+  <si>
+    <t>24HC01713-23D_39</t>
+  </si>
+  <si>
+    <t>24HC01713-23D_40</t>
+  </si>
+  <si>
+    <t>24HC01713-23D_41</t>
+  </si>
+  <si>
+    <t>24HC01713-23D_42</t>
+  </si>
+  <si>
+    <t>24HC01713-23D_43</t>
+  </si>
+  <si>
+    <t>24HC01713-23D_44</t>
+  </si>
+  <si>
+    <t>24HC01713-23D_45</t>
+  </si>
+  <si>
+    <t>24HC01713-23D_46</t>
+  </si>
+  <si>
+    <t>24HC01713-23D_47</t>
+  </si>
+  <si>
+    <t>24HC01713-23D_48</t>
+  </si>
+  <si>
+    <t>24HC01713-23D_49</t>
+  </si>
+  <si>
+    <t>24HC01713-23D_50</t>
+  </si>
+  <si>
+    <t>24HC01713-24D_1</t>
+  </si>
+  <si>
+    <t>24HC01713-24D_2</t>
+  </si>
+  <si>
+    <t>24HC01713-24D_3</t>
+  </si>
+  <si>
+    <t>24HC01713-24D_4</t>
+  </si>
+  <si>
+    <t>24HC01713-24D_5</t>
+  </si>
+  <si>
+    <t>24HC01713-24D_6</t>
+  </si>
+  <si>
+    <t>24HC01713-24D_7</t>
+  </si>
+  <si>
+    <t>24HC01713-24D_8</t>
+  </si>
+  <si>
+    <t>24HC01713-24D_9</t>
+  </si>
+  <si>
+    <t>24HC01713-24D_10</t>
+  </si>
+  <si>
+    <t>24HC01713-24D_11</t>
+  </si>
+  <si>
+    <t>24HC01713-24D_12</t>
+  </si>
+  <si>
+    <t>24HC01713-24D_13</t>
+  </si>
+  <si>
+    <t>24HC01713-24D_14</t>
+  </si>
+  <si>
+    <t>24HC01713-24D_15</t>
+  </si>
+  <si>
+    <t>24HC01713-24D_16</t>
+  </si>
+  <si>
+    <t>24HC01713-24D_17</t>
+  </si>
+  <si>
+    <t>24HC01713-24D_18</t>
+  </si>
+  <si>
+    <t>24HC01713-24D_19</t>
+  </si>
+  <si>
+    <t>24HC01713-24D_20</t>
+  </si>
+  <si>
+    <t>24HC01713-24D_21</t>
+  </si>
+  <si>
+    <t>24HC01713-24D_22</t>
+  </si>
+  <si>
+    <t>24HC01713-24D_23</t>
+  </si>
+  <si>
+    <t>24HC01713-24D_24</t>
+  </si>
+  <si>
+    <t>24HC01713-24D_25</t>
+  </si>
+  <si>
+    <t>24HC01713-24D_26</t>
+  </si>
+  <si>
+    <t>24HC01713-24D_27</t>
+  </si>
+  <si>
+    <t>24HC01713-24D_28</t>
+  </si>
+  <si>
+    <t>24HC01713-24D_29</t>
+  </si>
+  <si>
+    <t>24HC01713-24D_30</t>
+  </si>
+  <si>
+    <t>24HC01713-24D_31</t>
+  </si>
+  <si>
+    <t>24HC01713-24D_32</t>
+  </si>
+  <si>
+    <t>24HC01713-24D_33</t>
+  </si>
+  <si>
+    <t>24HC01713-24D_34</t>
+  </si>
+  <si>
+    <t>24HC01713-24D_35</t>
+  </si>
+  <si>
+    <t>24HC01713-24D_36</t>
+  </si>
+  <si>
+    <t>24HC01713-24D_37</t>
+  </si>
+  <si>
+    <t>24HC01713-24D_38</t>
+  </si>
+  <si>
+    <t>24HC01713-24D_39</t>
+  </si>
+  <si>
+    <t>24HC01713-24D_40</t>
+  </si>
+  <si>
+    <t>24HC01713-24D_41</t>
+  </si>
+  <si>
+    <t>24HC01713-24D_42</t>
+  </si>
+  <si>
+    <t>24HC01713-24D_43</t>
+  </si>
+  <si>
+    <t>24HC01713-24D_44</t>
+  </si>
+  <si>
+    <t>24HC01713-24D_45</t>
+  </si>
+  <si>
+    <t>24HC01713-24D_46</t>
+  </si>
+  <si>
+    <t>24HC01713-24D_47</t>
+  </si>
+  <si>
+    <t>24HC01713-24D_48</t>
+  </si>
+  <si>
+    <t>24HC01713-24D_49</t>
+  </si>
+  <si>
+    <t>24HC01713-24D_50</t>
+  </si>
+  <si>
+    <t>24HC01713-24D_51</t>
+  </si>
+  <si>
+    <t>24HC01713-24D_52</t>
+  </si>
+  <si>
+    <t>24HC01713-24D_53</t>
+  </si>
+  <si>
+    <t>24HC01713-24D_54</t>
+  </si>
+  <si>
+    <t>24HC01713-24D_55</t>
+  </si>
+  <si>
+    <t>24HC01713-24D_56</t>
+  </si>
+  <si>
+    <t>24HC01713-24D_57</t>
+  </si>
+  <si>
+    <t>24HC01713-24D_58</t>
+  </si>
+  <si>
+    <t>24HC01713-24D_59</t>
+  </si>
+  <si>
+    <t>24HC01713-24D_60</t>
+  </si>
+  <si>
+    <t>24HC01713-24D_61</t>
+  </si>
+  <si>
+    <t>24HC01713-24D_62</t>
+  </si>
+  <si>
+    <t>24HC01713-24D_63</t>
+  </si>
+  <si>
+    <t>24HC01713-24D_64</t>
+  </si>
+  <si>
+    <t>24HC01713-24D_65</t>
+  </si>
+  <si>
+    <t>24HC01713-24D_66</t>
+  </si>
+  <si>
+    <t>24HC01713-24D_67</t>
+  </si>
+  <si>
+    <t>24HC01713-24D_68</t>
+  </si>
+  <si>
+    <t>24HC01713-24D_69</t>
+  </si>
+  <si>
+    <t>24HC01713-24D_70</t>
+  </si>
+  <si>
+    <t>24HC01713-24D_71</t>
+  </si>
+  <si>
+    <t>24HC01713-24D_72</t>
+  </si>
+  <si>
+    <t>24HC01713-24D_73</t>
+  </si>
+  <si>
+    <t>24HC01713-24D_74</t>
+  </si>
+  <si>
+    <t>24HC01713-24D_75</t>
+  </si>
+  <si>
+    <t>24HC01713-24D_76</t>
+  </si>
+  <si>
+    <t>24HC01713-24D_77</t>
+  </si>
+  <si>
+    <t>24HC01713-24D_78</t>
+  </si>
+  <si>
+    <t>24HC01713-24D_79</t>
+  </si>
+  <si>
+    <t>24HC01713-24D_80</t>
+  </si>
+  <si>
+    <t>24HC01713-25D_1</t>
+  </si>
+  <si>
+    <t>24HC01713-25D_2</t>
+  </si>
+  <si>
+    <t>24HC01713-25D_3</t>
+  </si>
+  <si>
+    <t>24HC01713-25D_4</t>
+  </si>
+  <si>
+    <t>24HC01713-25D_5</t>
+  </si>
+  <si>
+    <t>24HC01713-25D_6</t>
+  </si>
+  <si>
+    <t>24HC01713-25D_7</t>
+  </si>
+  <si>
+    <t>24HC01713-25D_8</t>
+  </si>
+  <si>
+    <t>24HC01713-25D_9</t>
+  </si>
+  <si>
+    <t>24HC01713-25D_10</t>
+  </si>
+  <si>
+    <t>24HC01713-25D_11</t>
+  </si>
+  <si>
+    <t>24HC01713-25D_12</t>
+  </si>
+  <si>
+    <t>24HC01713-25D_13</t>
+  </si>
+  <si>
+    <t>24HC01713-25D_14</t>
+  </si>
+  <si>
+    <t>24HC01713-25D_15</t>
+  </si>
+  <si>
+    <t>24HC01713-25D_16</t>
+  </si>
+  <si>
+    <t>24HC01713-25D_17</t>
+  </si>
+  <si>
+    <t>24HC01713-25D_18</t>
+  </si>
+  <si>
+    <t>24HC01713-25D_19</t>
+  </si>
+  <si>
+    <t>24HC01713-25D_20</t>
+  </si>
+  <si>
+    <t>24HC01713-25D_21</t>
+  </si>
+  <si>
+    <t>24HC01713-25D_22</t>
+  </si>
+  <si>
+    <t>24HC01713-25D_23</t>
+  </si>
+  <si>
+    <t>24HC01713-25D_24</t>
+  </si>
+  <si>
+    <t>24HC01713-25D_25</t>
+  </si>
+  <si>
+    <t>24HC01713-25D_26</t>
+  </si>
+  <si>
+    <t>24HC01713-25D_27</t>
+  </si>
+  <si>
+    <t>24HC01713-25D_28</t>
+  </si>
+  <si>
+    <t>24HC01713-25D_29</t>
+  </si>
+  <si>
+    <t>24HC01713-25D_30</t>
+  </si>
+  <si>
+    <t>24HC01713-25D_31</t>
+  </si>
+  <si>
+    <t>24HC01713-25D_32</t>
+  </si>
+  <si>
+    <t>24HC01713-25D_33</t>
+  </si>
+  <si>
+    <t>24HC01713-25D_34</t>
+  </si>
+  <si>
+    <t>24HC01713-25D_35</t>
+  </si>
+  <si>
+    <t>24HC01713-25D_36</t>
+  </si>
+  <si>
+    <t>24HC01713-25D_37</t>
+  </si>
+  <si>
+    <t>24HC01713-25D_38</t>
+  </si>
+  <si>
+    <t>24HC01713-25D_39</t>
+  </si>
+  <si>
+    <t>24HC01713-25D_40</t>
+  </si>
+  <si>
+    <t>24HC01713-25D_41</t>
+  </si>
+  <si>
+    <t>24HC01713-25D_42</t>
+  </si>
+  <si>
+    <t>24HC01713-25D_43</t>
+  </si>
+  <si>
+    <t>24HC01713-25D_44</t>
+  </si>
+  <si>
+    <t>24HC01713-25D_45</t>
+  </si>
+  <si>
+    <t>24HC01713-25D_46</t>
+  </si>
+  <si>
+    <t>24HC01713-25D_47</t>
+  </si>
+  <si>
+    <t>24HC01713-25D_48</t>
+  </si>
+  <si>
+    <t>24HC01713-25D_49</t>
+  </si>
+  <si>
+    <t>24HC01713-25D_50</t>
+  </si>
+  <si>
+    <t>24HC01713-25D_51</t>
+  </si>
+  <si>
+    <t>24HC01713-25D_52</t>
+  </si>
+  <si>
+    <t>24HC01713-25D_53</t>
+  </si>
+  <si>
+    <t>24HC01713-25D_54</t>
+  </si>
+  <si>
+    <t>24HC01713-25D_55</t>
+  </si>
+  <si>
+    <t>24HC01713-25D_56</t>
+  </si>
+  <si>
+    <t>24HC01713-25D_57</t>
+  </si>
+  <si>
+    <t>24HC01713-25D_58</t>
+  </si>
+  <si>
+    <t>24HC01713-25D_59</t>
+  </si>
+  <si>
+    <t>24HC01713-25D_60</t>
+  </si>
+  <si>
+    <t>24HC01713-25D_61</t>
+  </si>
+  <si>
+    <t>24HC01713-25D_62</t>
+  </si>
+  <si>
+    <t>24HC01713-25D_63</t>
+  </si>
+  <si>
+    <t>24HC01713-25D_64</t>
+  </si>
+  <si>
+    <t>24HC01713-25D_65</t>
+  </si>
+  <si>
+    <t>24HC01713-25D_66</t>
+  </si>
+  <si>
+    <t>24HC01713-25D_67</t>
+  </si>
+  <si>
+    <t>24HC01713-25D_68</t>
+  </si>
+  <si>
+    <t>24HC01713-25D_69</t>
+  </si>
+  <si>
+    <t>24HC01713-25D_70</t>
+  </si>
+  <si>
+    <t>24HC01713-25D_71</t>
+  </si>
+  <si>
+    <t>24HC01713-25D_72</t>
+  </si>
+  <si>
+    <t>24HC01713-25D_73</t>
+  </si>
+  <si>
+    <t>24HC01713-25D_74</t>
+  </si>
+  <si>
+    <t>24HC01713-25D_75</t>
+  </si>
+  <si>
+    <t>24HC01713-25D_76</t>
+  </si>
+  <si>
+    <t>24HC01713-25D_77</t>
+  </si>
+  <si>
+    <t>24HC01713-25D_78</t>
+  </si>
+  <si>
+    <t>24HC01713-25D_79</t>
+  </si>
+  <si>
+    <t>24HC01713-25D_80</t>
+  </si>
+  <si>
+    <t>24HC01713-26D_1</t>
+  </si>
+  <si>
+    <t>24HC01713-26D_2</t>
+  </si>
+  <si>
+    <t>24HC01713-26D_3</t>
+  </si>
+  <si>
+    <t>24HC01713-26D_4</t>
+  </si>
+  <si>
+    <t>24HC01713-26D_5</t>
+  </si>
+  <si>
+    <t>24HC01713-26D_6</t>
+  </si>
+  <si>
+    <t>24HC01713-26D_7</t>
+  </si>
+  <si>
+    <t>24HC01713-26D_8</t>
+  </si>
+  <si>
+    <t>24HC01713-26D_9</t>
+  </si>
+  <si>
+    <t>24HC01713-26D_10</t>
+  </si>
+  <si>
+    <t>24HC01713-26D_11</t>
+  </si>
+  <si>
+    <t>24HC01713-26D_12</t>
+  </si>
+  <si>
+    <t>24HC01713-26D_13</t>
+  </si>
+  <si>
+    <t>24HC01713-26D_14</t>
+  </si>
+  <si>
+    <t>24HC01713-26D_15</t>
+  </si>
+  <si>
+    <t>24HC01713-26D_16</t>
+  </si>
+  <si>
+    <t>24HC01713-26D_17</t>
+  </si>
+  <si>
+    <t>24HC01713-26D_18</t>
+  </si>
+  <si>
+    <t>24HC01713-26D_19</t>
+  </si>
+  <si>
+    <t>24HC01713-26D_20</t>
+  </si>
+  <si>
+    <t>24HC01713-26D_21</t>
+  </si>
+  <si>
+    <t>24HC01713-26D_22</t>
+  </si>
+  <si>
+    <t>24HC01713-26D_23</t>
+  </si>
+  <si>
+    <t>24HC01713-26D_24</t>
+  </si>
+  <si>
+    <t>24HC01713-26D_25</t>
+  </si>
+  <si>
+    <t>24HC01713-26D_26</t>
+  </si>
+  <si>
+    <t>24HC01713-26D_27</t>
+  </si>
+  <si>
+    <t>24HC01713-26D_28</t>
+  </si>
+  <si>
+    <t>24HC01713-26D_29</t>
+  </si>
+  <si>
+    <t>24HC01713-26D_30</t>
+  </si>
+  <si>
+    <t>24HC01713-26D_31</t>
+  </si>
+  <si>
+    <t>24HC01713-26D_32</t>
+  </si>
+  <si>
+    <t>24HC01713-26D_33</t>
+  </si>
+  <si>
+    <t>24HC01713-26D_34</t>
+  </si>
+  <si>
+    <t>24HC01713-26D_35</t>
+  </si>
+  <si>
+    <t>24HC01713-26D_36</t>
+  </si>
+  <si>
+    <t>24HC01713-26D_37</t>
+  </si>
+  <si>
+    <t>24HC01713-26D_38</t>
+  </si>
+  <si>
+    <t>24HC01713-26D_39</t>
+  </si>
+  <si>
+    <t>24HC01713-26D_40</t>
+  </si>
+  <si>
+    <t>24HC01713-26D_41</t>
+  </si>
+  <si>
+    <t>24HC01713-26D_42</t>
+  </si>
+  <si>
+    <t>24HC01713-26D_43</t>
+  </si>
+  <si>
+    <t>24HC01713-26D_44</t>
+  </si>
+  <si>
+    <t>24HC01713-26D_45</t>
+  </si>
+  <si>
+    <t>24HC01713-26D_46</t>
+  </si>
+  <si>
+    <t>24HC01713-26D_47</t>
+  </si>
+  <si>
+    <t>24HC01713-26D_48</t>
+  </si>
+  <si>
+    <t>24HC01713-26D_49</t>
+  </si>
+  <si>
+    <t>24HC01713-26D_50</t>
+  </si>
+  <si>
+    <t>24HC01713-26D_51</t>
+  </si>
+  <si>
+    <t>24HC01713-26D_52</t>
+  </si>
+  <si>
+    <t>24HC01713-26D_53</t>
+  </si>
+  <si>
+    <t>24HC01713-26D_54</t>
+  </si>
+  <si>
+    <t>24HC01713-26D_55</t>
+  </si>
+  <si>
+    <t>24HC01713-26D_56</t>
+  </si>
+  <si>
+    <t>24HC01713-26D_57</t>
+  </si>
+  <si>
+    <t>24HC01713-26D_58</t>
+  </si>
+  <si>
+    <t>24HC01713-26D_59</t>
+  </si>
+  <si>
+    <t>24HC01713-26D_60</t>
+  </si>
+  <si>
+    <t>24HC01713-26D_61</t>
+  </si>
+  <si>
+    <t>24HC01713-26D_62</t>
+  </si>
+  <si>
+    <t>24HC01713-26D_63</t>
+  </si>
+  <si>
+    <t>24HC01713-26D_64</t>
+  </si>
+  <si>
+    <t>24HC01713-26D_65</t>
+  </si>
+  <si>
+    <t>24HC01713-26D_66</t>
+  </si>
+  <si>
+    <t>24HC01713-26D_67</t>
+  </si>
+  <si>
+    <t>24HC01713-26D_68</t>
+  </si>
+  <si>
+    <t>24HC01713-26D_69</t>
+  </si>
+  <si>
+    <t>24HC01713-26D_70</t>
+  </si>
+  <si>
+    <t>24HC01713-26D_71</t>
+  </si>
+  <si>
+    <t>24HC01713-26D_72</t>
+  </si>
+  <si>
+    <t>24HC01713-26D_73</t>
+  </si>
+  <si>
+    <t>24HC01713-26D_74</t>
+  </si>
+  <si>
+    <t>24HC01713-26D_75</t>
+  </si>
+  <si>
+    <t>24HC01713-26D_76</t>
+  </si>
+  <si>
+    <t>24HC01713-26D_77</t>
+  </si>
+  <si>
+    <t>24HC01713-26D_78</t>
+  </si>
+  <si>
+    <t>24HC01713-26D_79</t>
+  </si>
+  <si>
+    <t>24HC01713-26D_80</t>
+  </si>
+  <si>
+    <t>24HC01713-10F_1</t>
+  </si>
+  <si>
+    <t>24HC01713-16F_1</t>
+  </si>
+  <si>
+    <t>24HC01713-17F_1</t>
+  </si>
+  <si>
+    <t>24HC01713-19F_1</t>
+  </si>
+  <si>
+    <t>24HC01713-26F_1</t>
   </si>
   <si>
     <t>1.2.03.01.0002</t>
